--- a/teaching/traditional_assets/database/data/turkey/turkey_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_metals_mining.xlsx
@@ -647,10 +647,10 @@
         <v>0.2191082802547771</v>
       </c>
       <c r="X2">
-        <v>0.09527394735786499</v>
+        <v>0.09276020994751996</v>
       </c>
       <c r="Y2">
-        <v>0.1238343328969121</v>
+        <v>0.1263480703072571</v>
       </c>
       <c r="Z2">
         <v>-1.768440021296638</v>
@@ -659,10 +659,10 @@
         <v>-0.7322649133546518</v>
       </c>
       <c r="AB2">
-        <v>0.09520142982837881</v>
+        <v>0.09268192591465119</v>
       </c>
       <c r="AC2">
-        <v>-0.8274663431830307</v>
+        <v>-0.824946839269303</v>
       </c>
       <c r="AD2">
         <v>1.83</v>
@@ -778,10 +778,10 @@
         <v>0.2191082802547771</v>
       </c>
       <c r="X3">
-        <v>0.09527394735786499</v>
+        <v>0.09276020994751996</v>
       </c>
       <c r="Y3">
-        <v>0.1238343328969121</v>
+        <v>0.1263480703072571</v>
       </c>
       <c r="Z3">
         <v>-1.768440021296638</v>
@@ -790,10 +790,10 @@
         <v>-0.7322649133546518</v>
       </c>
       <c r="AB3">
-        <v>0.09520142982837881</v>
+        <v>0.09268192591465119</v>
       </c>
       <c r="AC3">
-        <v>-0.8274663431830307</v>
+        <v>-0.824946839269303</v>
       </c>
       <c r="AD3">
         <v>1.83</v>
@@ -1093,37 +1093,37 @@
         <v>0.00225583373395954</v>
       </c>
       <c r="F2">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G2">
         <v>809.4</v>
       </c>
       <c r="H2">
-        <v>49.7908531321029</v>
+        <v>9.24982783989844</v>
       </c>
       <c r="I2">
         <v>58.63</v>
       </c>
       <c r="J2">
-        <v>59.747053132103</v>
+        <v>59.7675278398984</v>
       </c>
       <c r="K2">
         <v>1.83</v>
       </c>
       <c r="L2">
-        <v>762.5562</v>
+        <v>803.1177</v>
       </c>
       <c r="M2">
-        <v>0.0952014298283788</v>
+        <v>0.0926819259146512</v>
       </c>
       <c r="N2">
-        <v>0.08051940014330899</v>
+        <v>0.07777029120818189</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1136,19 +1136,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.095273947357865</v>
+        <v>0.09276020994752</v>
       </c>
       <c r="T2">
-        <v>1.06459600238848</v>
+        <v>6.52606512081819</v>
       </c>
       <c r="U2">
         <v>0.83047137284479</v>
       </c>
       <c r="V2">
-        <v>10.9595041506579</v>
+        <v>64.8451145737112</v>
       </c>
       <c r="W2">
-        <v>13.45463048398679</v>
+        <v>17.90091690156567</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1157,16 +1157,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>809.4</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09513403951501381</v>
+        <v>0.09261328459240852</v>
       </c>
       <c r="C2">
-        <v>811.2350318291207</v>
+        <v>811.2351370651214</v>
       </c>
       <c r="D2">
-        <v>58.63503182912059</v>
+        <v>58.63513706512139</v>
       </c>
       <c r="E2">
         <v>-1.83</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09513403951501381</v>
+        <v>0.09261328459240852</v>
       </c>
       <c r="T2">
         <v>0.8290093911238978</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1443,13 +1443,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.09497856462808077</v>
+        <v>0.09246335536630522</v>
       </c>
       <c r="C3">
-        <v>803.1343439601733</v>
+        <v>803.1340607871783</v>
       </c>
       <c r="D3">
-        <v>58.64664396017326</v>
+        <v>58.64636078717827</v>
       </c>
       <c r="E3">
         <v>6.282300000000001</v>
@@ -1476,37 +1476,37 @@
         <v>232.9</v>
       </c>
       <c r="M3">
-        <v>0.18414921</v>
+        <v>0.13141926</v>
       </c>
       <c r="N3">
-        <v>232.71585079</v>
+        <v>232.76858074</v>
       </c>
       <c r="O3">
-        <v>51.19748717380001</v>
+        <v>51.2090877628</v>
       </c>
       <c r="P3">
-        <v>181.5183636162</v>
+        <v>181.5594929772</v>
       </c>
       <c r="Q3">
-        <v>215.2183636162</v>
+        <v>215.2594929772</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.09575909558391996</v>
+        <v>0.09326969228919718</v>
       </c>
       <c r="T3">
         <v>0.835540980266086</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>1264.735265494758</v>
+        <v>1772.190773255001</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.09482308974114775</v>
+        <v>0.09231342614020191</v>
       </c>
       <c r="C4">
-        <v>795.0336606914893</v>
+        <v>795.0329888068649</v>
       </c>
       <c r="D4">
-        <v>58.65826069148937</v>
+        <v>58.65758880686489</v>
       </c>
       <c r="E4">
         <v>14.3946</v>
@@ -1558,37 +1558,37 @@
         <v>232.9</v>
       </c>
       <c r="M4">
-        <v>0.3682984200000001</v>
+        <v>0.26283852</v>
       </c>
       <c r="N4">
-        <v>232.53170158</v>
+        <v>232.63716148</v>
       </c>
       <c r="O4">
-        <v>51.1569743476</v>
+        <v>51.1801755256</v>
       </c>
       <c r="P4">
-        <v>181.3747272324</v>
+        <v>181.4569859544</v>
       </c>
       <c r="Q4">
-        <v>215.0747272324</v>
+        <v>215.1569859544</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.09639690789913036</v>
+        <v>0.09393949606143052</v>
       </c>
       <c r="T4">
         <v>0.8422058671458701</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>632.367632747379</v>
+        <v>886.0953866275004</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.09466761485421471</v>
+        <v>0.09216349691409861</v>
       </c>
       <c r="C5">
-        <v>786.9329820258032</v>
+        <v>786.9319211266501</v>
       </c>
       <c r="D5">
-        <v>58.66988202580314</v>
+        <v>58.6688211266501</v>
       </c>
       <c r="E5">
         <v>22.5069</v>
@@ -1640,37 +1640,37 @@
         <v>232.9</v>
       </c>
       <c r="M5">
-        <v>0.5524476300000001</v>
+        <v>0.39425778</v>
       </c>
       <c r="N5">
-        <v>232.34755237</v>
+        <v>232.50574222</v>
       </c>
       <c r="O5">
-        <v>51.11646152140001</v>
+        <v>51.1512632884</v>
       </c>
       <c r="P5">
-        <v>181.2310908486</v>
+        <v>181.3544789316</v>
       </c>
       <c r="Q5">
-        <v>214.9310908486</v>
+        <v>215.0544789316</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.0970478709837265</v>
+        <v>0.09462311022072022</v>
       </c>
       <c r="T5">
         <v>0.8490081743736908</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>421.5784218315861</v>
+        <v>590.730257751667</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.09451213996728168</v>
+        <v>0.0920135676879953</v>
       </c>
       <c r="C6">
-        <v>778.832307965851</v>
+        <v>778.8308577490046</v>
       </c>
       <c r="D6">
-        <v>58.68150796585093</v>
+        <v>58.68005774900465</v>
       </c>
       <c r="E6">
         <v>30.61920000000001</v>
@@ -1722,37 +1722,37 @@
         <v>232.9</v>
       </c>
       <c r="M6">
-        <v>0.7365968400000001</v>
+        <v>0.52567704</v>
       </c>
       <c r="N6">
-        <v>232.16340316</v>
+        <v>232.37432296</v>
       </c>
       <c r="O6">
-        <v>51.0759486952</v>
+        <v>51.1223510512</v>
       </c>
       <c r="P6">
-        <v>181.0874544648</v>
+        <v>181.2519719088</v>
       </c>
       <c r="Q6">
-        <v>214.7874544648</v>
+        <v>214.9519719088</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.09771239579925176</v>
+        <v>0.09532096634166179</v>
       </c>
       <c r="T6">
         <v>0.8559521963354245</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>316.1838163736895</v>
+        <v>443.0476933137502</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.09435666508034866</v>
+        <v>0.09186363846189202</v>
       </c>
       <c r="C7">
-        <v>770.7316385143713</v>
+        <v>770.7297986764012</v>
       </c>
       <c r="D7">
-        <v>58.69313851437129</v>
+        <v>58.6912986764012</v>
       </c>
       <c r="E7">
         <v>38.7315</v>
@@ -1804,37 +1804,37 @@
         <v>232.9</v>
       </c>
       <c r="M7">
-        <v>0.9207460500000001</v>
+        <v>0.6570963</v>
       </c>
       <c r="N7">
-        <v>231.97925395</v>
+        <v>232.2429037</v>
       </c>
       <c r="O7">
-        <v>51.035435869</v>
+        <v>51.093438814</v>
       </c>
       <c r="P7">
-        <v>180.943818081</v>
+        <v>181.149464886</v>
       </c>
       <c r="Q7">
-        <v>214.643818081</v>
+        <v>214.849464886</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.09839091061089333</v>
+        <v>0.09603351417041266</v>
       </c>
       <c r="T7">
         <v>0.8630424082331948</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>252.9470530989516</v>
+        <v>354.4381546510002</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.09420119019341561</v>
+        <v>0.0917137092357887</v>
       </c>
       <c r="C8">
-        <v>762.6309736741049</v>
+        <v>762.6287439113142</v>
       </c>
       <c r="D8">
-        <v>58.70477367410494</v>
+        <v>58.70254391131425</v>
       </c>
       <c r="E8">
         <v>46.8438</v>
@@ -1886,37 +1886,37 @@
         <v>232.9</v>
       </c>
       <c r="M8">
-        <v>1.10489526</v>
+        <v>0.78851556</v>
       </c>
       <c r="N8">
-        <v>231.79510474</v>
+        <v>232.11148444</v>
       </c>
       <c r="O8">
-        <v>50.9949230428</v>
+        <v>51.0645265768</v>
       </c>
       <c r="P8">
-        <v>180.8001816972</v>
+        <v>181.0469578632</v>
       </c>
       <c r="Q8">
-        <v>214.5001816972</v>
+        <v>214.7469578632</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.09908386190788895</v>
+        <v>0.09676122259126459</v>
       </c>
       <c r="T8">
         <v>0.8702834757032578</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>210.789210915793</v>
+        <v>295.3651288758335</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.09404571530648261</v>
+        <v>0.09156378000968543</v>
       </c>
       <c r="C9">
-        <v>754.5303134477947</v>
+        <v>754.5276934562203</v>
       </c>
       <c r="D9">
-        <v>58.71641344779474</v>
+        <v>58.71379345622024</v>
       </c>
       <c r="E9">
         <v>54.95610000000001</v>
@@ -1968,37 +1968,37 @@
         <v>232.9</v>
       </c>
       <c r="M9">
-        <v>1.28904447</v>
+        <v>0.91993482</v>
       </c>
       <c r="N9">
-        <v>231.61095553</v>
+        <v>231.98006518</v>
       </c>
       <c r="O9">
-        <v>50.9544102166</v>
+        <v>51.0356143396</v>
       </c>
       <c r="P9">
-        <v>180.6565453134</v>
+        <v>180.9444508404</v>
       </c>
       <c r="Q9">
-        <v>214.3565453134</v>
+        <v>214.6444508404</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.09979171538331463</v>
+        <v>0.09750458065557574</v>
       </c>
       <c r="T9">
         <v>0.8776802650543978</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>180.6764664992512</v>
+        <v>253.1701104650001</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.09389024041954958</v>
+        <v>0.09141385078358213</v>
       </c>
       <c r="C10">
-        <v>746.4296578381858</v>
+        <v>746.4266473135975</v>
       </c>
       <c r="D10">
-        <v>58.72805783818578</v>
+        <v>58.72504731359754</v>
       </c>
       <c r="E10">
         <v>63.06840000000001</v>
@@ -2050,37 +2050,37 @@
         <v>232.9</v>
       </c>
       <c r="M10">
-        <v>1.47319368</v>
+        <v>1.05135408</v>
       </c>
       <c r="N10">
-        <v>231.42680632</v>
+        <v>231.84864592</v>
       </c>
       <c r="O10">
-        <v>50.9138973904</v>
+        <v>51.0067021024</v>
       </c>
       <c r="P10">
-        <v>180.5129089296</v>
+        <v>180.8419438176</v>
       </c>
       <c r="Q10">
-        <v>214.2129089296</v>
+        <v>214.5419438176</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1005149569777713</v>
+        <v>0.09826409867780665</v>
       </c>
       <c r="T10">
         <v>0.8852378541740404</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>158.0919081868448</v>
+        <v>221.5238466568751</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.09373476553261653</v>
+        <v>0.09126392155747882</v>
       </c>
       <c r="C11">
-        <v>738.3290068480253</v>
+        <v>738.3256054859263</v>
       </c>
       <c r="D11">
-        <v>58.73970684802526</v>
+        <v>58.73630548592632</v>
       </c>
       <c r="E11">
         <v>71.1807</v>
@@ -2132,37 +2132,37 @@
         <v>232.9</v>
       </c>
       <c r="M11">
-        <v>1.65734289</v>
+        <v>1.18277334</v>
       </c>
       <c r="N11">
-        <v>231.24265711</v>
+        <v>231.71722666</v>
       </c>
       <c r="O11">
-        <v>50.8733845642</v>
+        <v>50.9777898652</v>
       </c>
       <c r="P11">
-        <v>180.3692725458</v>
+        <v>180.7394367948</v>
       </c>
       <c r="Q11">
-        <v>214.0692725458</v>
+        <v>214.4394367948</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1012540939918863</v>
+        <v>0.09904030940382288</v>
       </c>
       <c r="T11">
         <v>0.8929615441534556</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>140.5261406105287</v>
+        <v>196.9100859172223</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2181,13 +2181,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.0935792906456835</v>
+        <v>0.09111399233137554</v>
       </c>
       <c r="C12">
-        <v>730.2283604800626</v>
+        <v>730.2245679756887</v>
       </c>
       <c r="D12">
-        <v>58.75136048006264</v>
+        <v>58.74756797568875</v>
       </c>
       <c r="E12">
         <v>79.29300000000001</v>
@@ -2214,37 +2214,37 @@
         <v>232.9</v>
       </c>
       <c r="M12">
-        <v>1.8414921</v>
+        <v>1.3141926</v>
       </c>
       <c r="N12">
-        <v>231.0585079</v>
+        <v>231.5858074</v>
       </c>
       <c r="O12">
-        <v>50.832871738</v>
+        <v>50.948877628</v>
       </c>
       <c r="P12">
-        <v>180.225636162</v>
+        <v>180.636929772</v>
       </c>
       <c r="Q12">
-        <v>213.925636162</v>
+        <v>214.336929772</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1020096562729817</v>
+        <v>0.09983376925708393</v>
       </c>
       <c r="T12">
         <v>0.900856871687969</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>126.4735265494758</v>
+        <v>177.2190773255001</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2263,13 +2263,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.09342381575875049</v>
+        <v>0.09096406310527223</v>
       </c>
       <c r="C13">
-        <v>722.1277187370495</v>
+        <v>722.1235347853689</v>
       </c>
       <c r="D13">
-        <v>58.7630187370495</v>
+        <v>58.75883478536885</v>
       </c>
       <c r="E13">
         <v>87.40530000000001</v>
@@ -2296,37 +2296,37 @@
         <v>232.9</v>
       </c>
       <c r="M13">
-        <v>2.02564131</v>
+        <v>1.44561186</v>
       </c>
       <c r="N13">
-        <v>230.87435869</v>
+        <v>231.45438814</v>
       </c>
       <c r="O13">
-        <v>50.7923589118</v>
+        <v>50.9199653908</v>
       </c>
       <c r="P13">
-        <v>180.0819997782</v>
+        <v>180.5344227492</v>
       </c>
       <c r="Q13">
-        <v>213.7819997782</v>
+        <v>214.2344227492</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1027821974817421</v>
+        <v>0.1006450596688452</v>
       </c>
       <c r="T13">
         <v>0.9089296223131456</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>114.9759332267962</v>
+        <v>161.108252114091</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.09326834087181744</v>
+        <v>0.09081413387916894</v>
       </c>
       <c r="C14">
-        <v>714.0270816217396</v>
+        <v>714.0225059174527</v>
       </c>
       <c r="D14">
-        <v>58.77468162173962</v>
+        <v>58.77010591745258</v>
       </c>
       <c r="E14">
         <v>95.5176</v>
@@ -2378,37 +2378,37 @@
         <v>232.9</v>
       </c>
       <c r="M14">
-        <v>2.20979052</v>
+        <v>1.57703112</v>
       </c>
       <c r="N14">
-        <v>230.69020948</v>
+        <v>231.32296888</v>
       </c>
       <c r="O14">
-        <v>50.7518460856</v>
+        <v>50.89105315360001</v>
       </c>
       <c r="P14">
-        <v>179.9383633944</v>
+        <v>180.4319157264</v>
       </c>
       <c r="Q14">
-        <v>213.6383633944</v>
+        <v>214.1319157264</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1035722964452471</v>
+        <v>0.1014747884990556</v>
       </c>
       <c r="T14">
         <v>0.9171858445434398</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>105.3946054578965</v>
+        <v>147.6825644379167</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2427,13 +2427,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.09311286598488441</v>
+        <v>0.09066420465306563</v>
       </c>
       <c r="C15">
-        <v>705.926449136889</v>
+        <v>705.9214813744277</v>
       </c>
       <c r="D15">
-        <v>58.78634913688899</v>
+        <v>58.78138137442777</v>
       </c>
       <c r="E15">
         <v>103.6299</v>
@@ -2460,37 +2460,37 @@
         <v>232.9</v>
       </c>
       <c r="M15">
-        <v>2.39393973</v>
+        <v>1.70845038</v>
       </c>
       <c r="N15">
-        <v>230.50606027</v>
+        <v>231.19154962</v>
       </c>
       <c r="O15">
-        <v>50.7113332594</v>
+        <v>50.8621409164</v>
       </c>
       <c r="P15">
-        <v>179.7947270106</v>
+        <v>180.3294087036</v>
       </c>
       <c r="Q15">
-        <v>213.4947270106</v>
+        <v>214.0294087036</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1043805586033154</v>
+        <v>0.1023235915552479</v>
       </c>
       <c r="T15">
         <v>0.9256318649859245</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>97.28732811498141</v>
+        <v>136.3223671734616</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2509,13 +2509,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.09295739109795137</v>
+        <v>0.09051427542696233</v>
       </c>
       <c r="C16">
-        <v>697.8258212852559</v>
+        <v>697.8204611587842</v>
       </c>
       <c r="D16">
-        <v>58.79802128525575</v>
+        <v>58.7926611587842</v>
       </c>
       <c r="E16">
         <v>111.7422</v>
@@ -2542,37 +2542,37 @@
         <v>232.9</v>
       </c>
       <c r="M16">
-        <v>2.57808894</v>
+        <v>1.83986964</v>
       </c>
       <c r="N16">
-        <v>230.32191106</v>
+        <v>231.06013036</v>
       </c>
       <c r="O16">
-        <v>50.67082043320001</v>
+        <v>50.8332286792</v>
       </c>
       <c r="P16">
-        <v>179.6510906268</v>
+        <v>180.2269016808</v>
       </c>
       <c r="Q16">
-        <v>213.3510906268</v>
+        <v>213.9269016808</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1052076175557574</v>
+        <v>0.1031921342173981</v>
       </c>
       <c r="T16">
         <v>0.9342743045084672</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>90.33823324962559</v>
+        <v>126.5850552325001</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.09280191621101835</v>
+        <v>0.09036434620085904</v>
       </c>
       <c r="C17">
-        <v>689.7251980696003</v>
+        <v>689.7194452730135</v>
       </c>
       <c r="D17">
-        <v>58.80969806960027</v>
+        <v>58.80394527301352</v>
       </c>
       <c r="E17">
         <v>119.8545</v>
@@ -2624,37 +2624,37 @@
         <v>232.9</v>
       </c>
       <c r="M17">
-        <v>2.76223815</v>
+        <v>1.9712889</v>
       </c>
       <c r="N17">
-        <v>230.13776185</v>
+        <v>230.9287111</v>
       </c>
       <c r="O17">
-        <v>50.630307607</v>
+        <v>50.804316442</v>
       </c>
       <c r="P17">
-        <v>179.507454243</v>
+        <v>180.124394658</v>
       </c>
       <c r="Q17">
-        <v>213.207454243</v>
+        <v>213.824394658</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1060541367188451</v>
+        <v>0.1040811131774812</v>
       </c>
       <c r="T17">
         <v>0.9431200955491873</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>84.31568436631721</v>
+        <v>118.1460515503334</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2673,13 +2673,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.09264644132408531</v>
+        <v>0.09021441697475573</v>
       </c>
       <c r="C18">
-        <v>681.6245794926851</v>
+        <v>681.6184337196094</v>
       </c>
       <c r="D18">
-        <v>58.82137949268508</v>
+        <v>58.81523371960932</v>
       </c>
       <c r="E18">
         <v>127.9668</v>
@@ -2706,37 +2706,37 @@
         <v>232.9</v>
       </c>
       <c r="M18">
-        <v>2.946387360000001</v>
+        <v>2.10270816</v>
       </c>
       <c r="N18">
-        <v>229.95361264</v>
+        <v>230.79729184</v>
       </c>
       <c r="O18">
-        <v>50.58979478080001</v>
+        <v>50.7754042048</v>
       </c>
       <c r="P18">
-        <v>179.3638178592</v>
+        <v>180.0218876352</v>
       </c>
       <c r="Q18">
-        <v>213.0638178592</v>
+        <v>213.7218876352</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1069208111001016</v>
+        <v>0.1049912583032806</v>
       </c>
       <c r="T18">
         <v>0.9521765006623055</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>79.04595409342238</v>
+        <v>110.7619233284375</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.09249096643715229</v>
+        <v>0.09006448774865243</v>
       </c>
       <c r="C19">
-        <v>673.523965557275</v>
+        <v>673.5174265010671</v>
       </c>
       <c r="D19">
-        <v>58.83306555727494</v>
+        <v>58.82652650106713</v>
       </c>
       <c r="E19">
         <v>136.0791</v>
@@ -2788,37 +2788,37 @@
         <v>232.9</v>
       </c>
       <c r="M19">
-        <v>3.130536570000001</v>
+        <v>2.23412742</v>
       </c>
       <c r="N19">
-        <v>229.76946343</v>
+        <v>230.66587258</v>
       </c>
       <c r="O19">
-        <v>50.5492819546</v>
+        <v>50.7464919676</v>
       </c>
       <c r="P19">
-        <v>179.2201814754</v>
+        <v>179.9193806124</v>
       </c>
       <c r="Q19">
-        <v>212.9201814754</v>
+        <v>213.6193806124</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1078083692013883</v>
+        <v>0.1059233346369306</v>
       </c>
       <c r="T19">
         <v>0.9614511324046555</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>74.39619208792695</v>
+        <v>104.2465160738236</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.09233549155021925</v>
+        <v>0.08991455852254913</v>
       </c>
       <c r="C20">
-        <v>665.4233562661368</v>
+        <v>665.4164236198843</v>
       </c>
       <c r="D20">
-        <v>58.84475626613678</v>
+        <v>58.83782361988432</v>
       </c>
       <c r="E20">
         <v>144.1914</v>
@@ -2870,37 +2870,37 @@
         <v>232.9</v>
       </c>
       <c r="M20">
-        <v>3.31468578</v>
+        <v>2.36554668</v>
       </c>
       <c r="N20">
-        <v>229.58531422</v>
+        <v>230.53445332</v>
       </c>
       <c r="O20">
-        <v>50.5087691284</v>
+        <v>50.7175797304</v>
       </c>
       <c r="P20">
-        <v>179.0765450916</v>
+        <v>179.8168735896</v>
       </c>
       <c r="Q20">
-        <v>212.7765450916</v>
+        <v>213.5168735896</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.108717575061243</v>
+        <v>0.1068781445396941</v>
       </c>
       <c r="T20">
         <v>0.9709519746773067</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>70.26307030526435</v>
+        <v>98.45504295861116</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.09218001666328622</v>
+        <v>0.08976462929644584</v>
       </c>
       <c r="C21">
-        <v>657.3227516220397</v>
+        <v>657.3154250785603</v>
       </c>
       <c r="D21">
-        <v>58.85645162203972</v>
+        <v>58.84912507856026</v>
       </c>
       <c r="E21">
         <v>152.3037</v>
@@ -2952,37 +2952,37 @@
         <v>232.9</v>
       </c>
       <c r="M21">
-        <v>3.49883499</v>
+        <v>2.49696594</v>
       </c>
       <c r="N21">
-        <v>229.40116501</v>
+        <v>230.40303406</v>
       </c>
       <c r="O21">
-        <v>50.4682563022</v>
+        <v>50.6886674932</v>
       </c>
       <c r="P21">
-        <v>178.9329087078</v>
+        <v>179.7143665668</v>
       </c>
       <c r="Q21">
-        <v>212.6329087078</v>
+        <v>213.4143665668</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1096492304485015</v>
+        <v>0.1078565299956121</v>
       </c>
       <c r="T21">
         <v>0.980687405648048</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>66.56501397340833</v>
+        <v>93.27319859236847</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.09202454177635319</v>
+        <v>0.08961470007034256</v>
       </c>
       <c r="C22">
-        <v>649.2221516277551</v>
+        <v>649.2144308795962</v>
       </c>
       <c r="D22">
-        <v>58.86815162775513</v>
+        <v>58.86043087959619</v>
       </c>
       <c r="E22">
         <v>160.416</v>
@@ -3034,37 +3034,37 @@
         <v>232.9</v>
       </c>
       <c r="M22">
-        <v>3.6829842</v>
+        <v>2.6283852</v>
       </c>
       <c r="N22">
-        <v>229.2170158</v>
+        <v>230.2716148</v>
       </c>
       <c r="O22">
-        <v>50.427743476</v>
+        <v>50.659755256</v>
       </c>
       <c r="P22">
-        <v>178.789272324</v>
+        <v>179.611859544</v>
       </c>
       <c r="Q22">
-        <v>212.489272324</v>
+        <v>213.311859544</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1106041772204415</v>
+        <v>0.1088593750879282</v>
       </c>
       <c r="T22">
         <v>0.9906662223930579</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>63.23676327473791</v>
+        <v>88.60953866275005</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.09186906688942016</v>
+        <v>0.08946477084423923</v>
       </c>
       <c r="C23">
-        <v>641.1215562860566</v>
+        <v>641.1134410254953</v>
       </c>
       <c r="D23">
-        <v>58.87985628605653</v>
+        <v>58.87174102549528</v>
       </c>
       <c r="E23">
         <v>168.5283</v>
@@ -3116,37 +3116,37 @@
         <v>232.9</v>
       </c>
       <c r="M23">
-        <v>3.86713341</v>
+        <v>2.75980446</v>
       </c>
       <c r="N23">
-        <v>229.03286659</v>
+        <v>230.14019554</v>
       </c>
       <c r="O23">
-        <v>50.3872306498</v>
+        <v>50.6308430188</v>
       </c>
       <c r="P23">
-        <v>178.6456359402</v>
+        <v>179.5093525212</v>
       </c>
       <c r="Q23">
-        <v>212.3456359402</v>
+        <v>213.2093525212</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1115832998600255</v>
+        <v>0.109887608663594</v>
       </c>
       <c r="T23">
         <v>1.000897667410093</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>60.22548883308372</v>
+        <v>84.39003682166671</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.09171359200248713</v>
+        <v>0.08931484161813595</v>
       </c>
       <c r="C24">
-        <v>633.0209655997197</v>
+        <v>633.0124555187627</v>
       </c>
       <c r="D24">
-        <v>58.89156559971968</v>
+        <v>58.88305551876266</v>
       </c>
       <c r="E24">
         <v>176.6406</v>
@@ -3198,37 +3198,37 @@
         <v>232.9</v>
       </c>
       <c r="M24">
-        <v>4.05128262</v>
+        <v>2.89122372</v>
       </c>
       <c r="N24">
-        <v>228.84871738</v>
+        <v>230.00877628</v>
       </c>
       <c r="O24">
-        <v>50.3467178236</v>
+        <v>50.6019307816</v>
       </c>
       <c r="P24">
-        <v>178.5019995564</v>
+        <v>179.4068454984</v>
       </c>
       <c r="Q24">
-        <v>212.2019995564</v>
+        <v>213.1068454984</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1125875282083168</v>
+        <v>0.1109422072027384</v>
       </c>
       <c r="T24">
         <v>1.011391457171155</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>57.4879666133981</v>
+        <v>80.55412605704549</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.09155811711555412</v>
+        <v>0.08916491239203264</v>
       </c>
       <c r="C25">
-        <v>624.9203795715225</v>
+        <v>624.9114743619053</v>
       </c>
       <c r="D25">
-        <v>58.90327957152254</v>
+        <v>58.89437436190534</v>
       </c>
       <c r="E25">
         <v>184.7529</v>
@@ -3280,37 +3280,37 @@
         <v>232.9</v>
       </c>
       <c r="M25">
-        <v>4.23543183</v>
+        <v>3.02264298</v>
       </c>
       <c r="N25">
-        <v>228.66456817</v>
+        <v>229.87735702</v>
       </c>
       <c r="O25">
-        <v>50.3062049974</v>
+        <v>50.5730185444</v>
       </c>
       <c r="P25">
-        <v>178.3583631726</v>
+        <v>179.3043384756</v>
       </c>
       <c r="Q25">
-        <v>212.0583631726</v>
+        <v>213.0043384756</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1136178404098105</v>
+        <v>0.1120241979117307</v>
       </c>
       <c r="T25">
         <v>1.022157812900037</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>54.98848980411992</v>
+        <v>77.05177275021742</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.09140264222862107</v>
+        <v>0.08901498316592935</v>
       </c>
       <c r="C26">
-        <v>616.8197982042453</v>
+        <v>616.8104975574323</v>
       </c>
       <c r="D26">
-        <v>58.91499820424527</v>
+        <v>58.90569755743228</v>
       </c>
       <c r="E26">
         <v>192.8652</v>
@@ -3362,37 +3362,37 @@
         <v>232.9</v>
       </c>
       <c r="M26">
-        <v>4.419581040000001</v>
+        <v>3.15406224</v>
       </c>
       <c r="N26">
-        <v>228.48041896</v>
+        <v>229.74593776</v>
       </c>
       <c r="O26">
-        <v>50.2656921712</v>
+        <v>50.5441063072</v>
       </c>
       <c r="P26">
-        <v>178.2147267888</v>
+        <v>179.2018314528</v>
       </c>
       <c r="Q26">
-        <v>211.9147267888</v>
+        <v>212.9018314528</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1146752660902909</v>
+        <v>0.1131346620604333</v>
       </c>
       <c r="T26">
         <v>1.033207493779679</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>52.69730272894826</v>
+        <v>73.84128221895837</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.09124716734168803</v>
+        <v>0.08886505393982604</v>
       </c>
       <c r="C27">
-        <v>608.7192215006703</v>
+        <v>608.7095251078543</v>
       </c>
       <c r="D27">
-        <v>58.92672150067028</v>
+        <v>58.91702510785437</v>
       </c>
       <c r="E27">
         <v>200.9775</v>
@@ -3444,37 +3444,37 @@
         <v>232.9</v>
       </c>
       <c r="M27">
-        <v>4.603730250000001</v>
+        <v>3.2854815</v>
       </c>
       <c r="N27">
-        <v>228.29626975</v>
+        <v>229.6145185</v>
       </c>
       <c r="O27">
-        <v>50.225179345</v>
+        <v>50.51519407</v>
       </c>
       <c r="P27">
-        <v>178.071090405</v>
+        <v>179.09932443</v>
       </c>
       <c r="Q27">
-        <v>211.771090405</v>
+        <v>212.79932443</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1157608897889174</v>
+        <v>0.1142747385864347</v>
       </c>
       <c r="T27">
         <v>1.044551832816111</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>50.58941061979032</v>
+        <v>70.88763093020003</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.09109169245475501</v>
+        <v>0.08871512471372274</v>
       </c>
       <c r="C28">
-        <v>600.6186494635822</v>
+        <v>600.6085570156845</v>
       </c>
       <c r="D28">
-        <v>58.93844946358213</v>
+        <v>58.92835701568443</v>
       </c>
       <c r="E28">
         <v>209.0898</v>
@@ -3526,37 +3526,37 @@
         <v>232.9</v>
       </c>
       <c r="M28">
-        <v>4.78787946</v>
+        <v>3.41690076</v>
       </c>
       <c r="N28">
-        <v>228.11212054</v>
+        <v>229.48309924</v>
       </c>
       <c r="O28">
-        <v>50.1846665188</v>
+        <v>50.4862818328</v>
       </c>
       <c r="P28">
-        <v>177.9274540212</v>
+        <v>178.9968174072</v>
       </c>
       <c r="Q28">
-        <v>211.6274540212</v>
+        <v>212.6968174072</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1168758546685879</v>
+        <v>0.1154456279915172</v>
       </c>
       <c r="T28">
         <v>1.056202775610285</v>
       </c>
       <c r="U28">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>48.6436640574907</v>
+        <v>68.1611835867308</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3575,13 +3575,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.09093621756782198</v>
+        <v>0.08856519548761946</v>
       </c>
       <c r="C29">
-        <v>592.5180820957677</v>
+        <v>592.5075932834372</v>
       </c>
       <c r="D29">
-        <v>58.95018209576764</v>
+        <v>58.93969328343722</v>
       </c>
       <c r="E29">
         <v>217.2021</v>
@@ -3608,37 +3608,37 @@
         <v>232.9</v>
       </c>
       <c r="M29">
-        <v>4.97202867</v>
+        <v>3.54832002</v>
       </c>
       <c r="N29">
-        <v>227.92797133</v>
+        <v>229.35167998</v>
       </c>
       <c r="O29">
-        <v>50.1441536926</v>
+        <v>50.4573695956</v>
       </c>
       <c r="P29">
-        <v>177.7838176374</v>
+        <v>178.8943103844</v>
       </c>
       <c r="Q29">
-        <v>211.4838176374</v>
+        <v>212.5943103844</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.118021366531263</v>
+        <v>0.1166485965583828</v>
       </c>
       <c r="T29">
         <v>1.068172922316628</v>
       </c>
       <c r="U29">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>46.84204687017623</v>
+        <v>65.63669530574077</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3657,13 +3657,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.09078074268088898</v>
+        <v>0.08841526626151616</v>
       </c>
       <c r="C30">
-        <v>584.4175194000159</v>
+        <v>584.4066339136294</v>
       </c>
       <c r="D30">
-        <v>58.96191940001587</v>
+        <v>58.9510339136294</v>
       </c>
       <c r="E30">
         <v>225.3144</v>
@@ -3690,37 +3690,37 @@
         <v>232.9</v>
       </c>
       <c r="M30">
-        <v>5.15617788</v>
+        <v>3.67973928</v>
       </c>
       <c r="N30">
-        <v>227.74382212</v>
+        <v>229.22026072</v>
       </c>
       <c r="O30">
-        <v>50.1036408664</v>
+        <v>50.4284573584</v>
       </c>
       <c r="P30">
-        <v>177.6401812536</v>
+        <v>178.7918033616</v>
       </c>
       <c r="Q30">
-        <v>211.3401812536</v>
+        <v>212.4918033616</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1191986981679014</v>
+        <v>0.1178849809187724</v>
       </c>
       <c r="T30">
         <v>1.080475573098147</v>
       </c>
       <c r="U30">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>45.16911662481279</v>
+        <v>63.29252761625003</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.09062526779395592</v>
+        <v>0.08826533703541285</v>
       </c>
       <c r="C31">
-        <v>576.3169613791181</v>
+        <v>576.3056789087797</v>
       </c>
       <c r="D31">
-        <v>58.97366137911807</v>
+        <v>58.96237890877963</v>
       </c>
       <c r="E31">
         <v>233.4267</v>
@@ -3772,37 +3772,37 @@
         <v>232.9</v>
       </c>
       <c r="M31">
-        <v>5.340327090000001</v>
+        <v>3.81115854</v>
       </c>
       <c r="N31">
-        <v>227.55967291</v>
+        <v>229.08884146</v>
       </c>
       <c r="O31">
-        <v>50.06312804020001</v>
+        <v>50.3995451212</v>
       </c>
       <c r="P31">
-        <v>177.4965448698</v>
+        <v>178.6892963388</v>
       </c>
       <c r="Q31">
-        <v>211.1965448698</v>
+        <v>212.3892963388</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1204091940759943</v>
+        <v>0.1191561930076237</v>
       </c>
       <c r="T31">
         <v>1.093124777422807</v>
       </c>
       <c r="U31">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>43.6115608791296</v>
+        <v>61.11002666396555</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.09046979290702289</v>
+        <v>0.08811540780930954</v>
       </c>
       <c r="C32">
-        <v>568.2164080358676</v>
+        <v>568.2047282714084</v>
       </c>
       <c r="D32">
-        <v>58.98540803586769</v>
+        <v>58.97372827140843</v>
       </c>
       <c r="E32">
         <v>241.539</v>
@@ -3854,37 +3854,37 @@
         <v>232.9</v>
       </c>
       <c r="M32">
-        <v>5.524476300000001</v>
+        <v>3.9425778</v>
       </c>
       <c r="N32">
-        <v>227.3755237</v>
+        <v>228.9574222</v>
       </c>
       <c r="O32">
-        <v>50.022615214</v>
+        <v>50.370632884</v>
       </c>
       <c r="P32">
-        <v>177.352908486</v>
+        <v>178.586789316</v>
       </c>
       <c r="Q32">
-        <v>211.052908486</v>
+        <v>212.286789316</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1216542755814613</v>
+        <v>0.1204637254418708</v>
       </c>
       <c r="T32">
         <v>1.106135387585315</v>
       </c>
       <c r="U32">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>42.15784218315861</v>
+        <v>59.0730257751667</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.09031431802008986</v>
+        <v>0.08796547858320626</v>
       </c>
       <c r="C33">
-        <v>560.1158593730604</v>
+        <v>560.1037820040384</v>
       </c>
       <c r="D33">
-        <v>58.99715937306046</v>
+        <v>58.98508200403837</v>
       </c>
       <c r="E33">
         <v>249.6513</v>
@@ -3936,37 +3936,37 @@
         <v>232.9</v>
       </c>
       <c r="M33">
-        <v>5.70862551</v>
+        <v>4.07399706</v>
       </c>
       <c r="N33">
-        <v>227.19137449</v>
+        <v>228.82600294</v>
       </c>
       <c r="O33">
-        <v>49.9821023878</v>
+        <v>50.3417206468</v>
       </c>
       <c r="P33">
-        <v>177.2092721022</v>
+        <v>178.4842822932</v>
       </c>
       <c r="Q33">
-        <v>210.9092721022</v>
+        <v>212.1842822932</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1229354464059274</v>
+        <v>0.1218091573669656</v>
       </c>
       <c r="T33">
         <v>1.119523116882968</v>
       </c>
       <c r="U33">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>40.7979117901535</v>
+        <v>57.16744429854841</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.09015884313315684</v>
+        <v>0.08781554935710294</v>
       </c>
       <c r="C34">
-        <v>552.0153153934943</v>
+        <v>552.0028401091938</v>
       </c>
       <c r="D34">
-        <v>59.00891539349431</v>
+        <v>58.99644010919383</v>
       </c>
       <c r="E34">
         <v>257.7636000000001</v>
@@ -4018,37 +4018,37 @@
         <v>232.9</v>
       </c>
       <c r="M34">
-        <v>5.892774720000001</v>
+        <v>4.20541632</v>
       </c>
       <c r="N34">
-        <v>227.00722528</v>
+        <v>228.69458368</v>
       </c>
       <c r="O34">
-        <v>49.9415895616</v>
+        <v>50.3128084096</v>
       </c>
       <c r="P34">
-        <v>177.0656357184</v>
+        <v>178.3817752704</v>
       </c>
       <c r="Q34">
-        <v>210.7656357184</v>
+        <v>212.0817752704</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1242542987252306</v>
+        <v>0.1231941608192691</v>
       </c>
       <c r="T34">
         <v>1.13330460292467</v>
       </c>
       <c r="U34">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>39.52297704671119</v>
+        <v>55.38096166421877</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.09000336824622379</v>
+        <v>0.08766562013099964</v>
       </c>
       <c r="C35">
-        <v>543.9147760999693</v>
+        <v>543.9019025894013</v>
       </c>
       <c r="D35">
-        <v>59.02067609996941</v>
+        <v>59.00780258940126</v>
       </c>
       <c r="E35">
         <v>265.8759000000001</v>
@@ -4100,37 +4100,37 @@
         <v>232.9</v>
       </c>
       <c r="M35">
-        <v>6.076923930000001</v>
+        <v>4.336835580000001</v>
       </c>
       <c r="N35">
-        <v>226.82307607</v>
+        <v>228.56316442</v>
       </c>
       <c r="O35">
-        <v>49.9010767354</v>
+        <v>50.2838961724</v>
       </c>
       <c r="P35">
-        <v>176.9219993346</v>
+        <v>178.2792682476</v>
       </c>
       <c r="Q35">
-        <v>210.6219993346</v>
+        <v>211.9792682476</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1256125197704833</v>
+        <v>0.1246205076582084</v>
       </c>
       <c r="T35">
         <v>1.147497476609407</v>
       </c>
       <c r="U35">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>38.32531107559873</v>
+        <v>53.70275070469698</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.08984789335929078</v>
+        <v>0.08751569090489636</v>
       </c>
       <c r="C36">
-        <v>535.8142414952881</v>
+        <v>535.8009694471889</v>
       </c>
       <c r="D36">
-        <v>59.03244149528814</v>
+        <v>59.01916944718896</v>
       </c>
       <c r="E36">
         <v>273.9882000000001</v>
@@ -4182,37 +4182,37 @@
         <v>232.9</v>
       </c>
       <c r="M36">
-        <v>6.261073140000001</v>
+        <v>4.46825484</v>
       </c>
       <c r="N36">
-        <v>226.63892686</v>
+        <v>228.43174516</v>
       </c>
       <c r="O36">
-        <v>49.8605639092</v>
+        <v>50.25498393519999</v>
       </c>
       <c r="P36">
-        <v>176.7783629508</v>
+        <v>178.1767612248</v>
       </c>
       <c r="Q36">
-        <v>210.4783629508</v>
+        <v>211.8767612248</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1270118990292285</v>
+        <v>0.1260900771286309</v>
       </c>
       <c r="T36">
         <v>1.162120437375501</v>
       </c>
       <c r="U36">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>37.19809604396347</v>
+        <v>52.12325803691179</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4231,13 +4231,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.08969241847235772</v>
+        <v>0.08736576167879304</v>
       </c>
       <c r="C37">
-        <v>527.7137115822551</v>
+        <v>527.7000406850872</v>
       </c>
       <c r="D37">
-        <v>59.04421158225515</v>
+        <v>59.03054068508725</v>
       </c>
       <c r="E37">
         <v>282.1005000000001</v>
@@ -4264,37 +4264,37 @@
         <v>232.9</v>
       </c>
       <c r="M37">
-        <v>6.445222350000002</v>
+        <v>4.599674100000001</v>
       </c>
       <c r="N37">
-        <v>226.45477765</v>
+        <v>228.3003259</v>
       </c>
       <c r="O37">
-        <v>49.820051083</v>
+        <v>50.22607169800001</v>
       </c>
       <c r="P37">
-        <v>176.634726567</v>
+        <v>178.074254202</v>
       </c>
       <c r="Q37">
-        <v>210.334726567</v>
+        <v>211.774254202</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1284543361113196</v>
+        <v>0.1276048641212201</v>
       </c>
       <c r="T37">
         <v>1.177193335395935</v>
       </c>
       <c r="U37">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>36.13529329985023</v>
+        <v>50.63402209300002</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4313,13 +4313,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.08953694358542472</v>
+        <v>0.08721583245268977</v>
       </c>
       <c r="C38">
-        <v>519.6131863636774</v>
+        <v>519.5991163056283</v>
       </c>
       <c r="D38">
-        <v>59.05598636367729</v>
+        <v>59.04191630562833</v>
       </c>
       <c r="E38">
         <v>290.2128</v>
@@ -4346,37 +4346,37 @@
         <v>232.9</v>
       </c>
       <c r="M38">
-        <v>6.62937156</v>
+        <v>4.73109336</v>
       </c>
       <c r="N38">
-        <v>226.27062844</v>
+        <v>228.16890664</v>
       </c>
       <c r="O38">
-        <v>49.7795382568</v>
+        <v>50.1971594608</v>
       </c>
       <c r="P38">
-        <v>176.4910901832</v>
+        <v>177.9717471792</v>
       </c>
       <c r="Q38">
-        <v>210.1910901832</v>
+        <v>211.6717471792</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1299418493522261</v>
+        <v>0.1291669882073277</v>
       </c>
       <c r="T38">
         <v>1.192737261479508</v>
       </c>
       <c r="U38">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>35.13153515263217</v>
+        <v>49.22752147930558</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4395,13 +4395,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.08938146869849167</v>
+        <v>0.08706590322658647</v>
       </c>
       <c r="C39">
-        <v>511.5126658423637</v>
+        <v>511.4981963113465</v>
       </c>
       <c r="D39">
-        <v>59.06776584236371</v>
+        <v>59.05329631134642</v>
       </c>
       <c r="E39">
         <v>298.3251</v>
@@ -4428,37 +4428,37 @@
         <v>232.9</v>
       </c>
       <c r="M39">
-        <v>6.81352077</v>
+        <v>4.86251262</v>
       </c>
       <c r="N39">
-        <v>226.08647923</v>
+        <v>228.03748738</v>
       </c>
       <c r="O39">
-        <v>49.7390254306</v>
+        <v>50.16824722360001</v>
       </c>
       <c r="P39">
-        <v>176.3474537994</v>
+        <v>177.8692401564</v>
       </c>
       <c r="Q39">
-        <v>210.0474537994</v>
+        <v>211.5692401564</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1314765852357011</v>
+        <v>0.1307787035342642</v>
       </c>
       <c r="T39">
         <v>1.208774645533988</v>
       </c>
       <c r="U39">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>34.18203420256103</v>
+        <v>47.89704792581084</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4477,13 +4477,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.08922599381155864</v>
+        <v>0.08691597400048316</v>
       </c>
       <c r="C40">
-        <v>503.4121500211257</v>
+        <v>503.3972807047776</v>
       </c>
       <c r="D40">
-        <v>59.07955002112571</v>
+        <v>59.06468070477766</v>
       </c>
       <c r="E40">
         <v>306.4374</v>
@@ -4510,37 +4510,37 @@
         <v>232.9</v>
       </c>
       <c r="M40">
-        <v>6.99766998</v>
+        <v>4.99393188</v>
       </c>
       <c r="N40">
-        <v>225.90233002</v>
+        <v>227.90606812</v>
       </c>
       <c r="O40">
-        <v>49.6985126044</v>
+        <v>50.1393349864</v>
       </c>
       <c r="P40">
-        <v>176.2038174156</v>
+        <v>177.7667331336</v>
       </c>
       <c r="Q40">
-        <v>209.9038174156</v>
+        <v>211.4667331336</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1330608287283204</v>
+        <v>0.1324424096781986</v>
       </c>
       <c r="T40">
         <v>1.225329364557968</v>
       </c>
       <c r="U40">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>33.28250698670416</v>
+        <v>46.63659929618424</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.08907051892462561</v>
+        <v>0.08676604477437985</v>
       </c>
       <c r="C41">
-        <v>495.3116389027769</v>
+        <v>495.2963694884601</v>
       </c>
       <c r="D41">
-        <v>59.09133890277691</v>
+        <v>59.07606948846016</v>
       </c>
       <c r="E41">
         <v>314.5497</v>
@@ -4592,37 +4592,37 @@
         <v>232.9</v>
       </c>
       <c r="M41">
-        <v>7.181819190000001</v>
+        <v>5.12535114</v>
       </c>
       <c r="N41">
-        <v>225.71818081</v>
+        <v>227.77464886</v>
       </c>
       <c r="O41">
-        <v>49.6579997782</v>
+        <v>50.1104227492</v>
       </c>
       <c r="P41">
-        <v>176.0601810318</v>
+        <v>177.6642261108</v>
       </c>
       <c r="Q41">
-        <v>209.7601810318</v>
+        <v>211.3642261108</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1346970146305338</v>
+        <v>0.1341606635645571</v>
       </c>
       <c r="T41">
         <v>1.242426861254865</v>
       </c>
       <c r="U41">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>32.42910937166047</v>
+        <v>45.44078905782053</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4641,13 +4641,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.08891504403769258</v>
+        <v>0.08661611554827656</v>
       </c>
       <c r="C42">
-        <v>487.2111324901331</v>
+        <v>487.1954626649339</v>
       </c>
       <c r="D42">
-        <v>59.10313249013315</v>
+        <v>59.08746266493395</v>
       </c>
       <c r="E42">
         <v>322.662</v>
@@ -4674,37 +4674,37 @@
         <v>232.9</v>
       </c>
       <c r="M42">
-        <v>7.365968400000001</v>
+        <v>5.2567704</v>
       </c>
       <c r="N42">
-        <v>225.5340316</v>
+        <v>227.6432296</v>
       </c>
       <c r="O42">
-        <v>49.617486952</v>
+        <v>50.081510512</v>
       </c>
       <c r="P42">
-        <v>175.916544648</v>
+        <v>177.561719088</v>
       </c>
       <c r="Q42">
-        <v>209.616544648</v>
+        <v>211.261719088</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.136387740062821</v>
+        <v>0.1359361925804609</v>
       </c>
       <c r="T42">
         <v>1.260094274508325</v>
       </c>
       <c r="U42">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>31.61838163736895</v>
+        <v>44.30476933137503</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.08875956915075955</v>
+        <v>0.08646618632217327</v>
       </c>
       <c r="C43">
-        <v>479.1106307860126</v>
+        <v>479.0945602367411</v>
       </c>
       <c r="D43">
-        <v>59.11493078601251</v>
+        <v>59.09886023674109</v>
       </c>
       <c r="E43">
         <v>330.7743</v>
@@ -4756,37 +4756,37 @@
         <v>232.9</v>
       </c>
       <c r="M43">
-        <v>7.550117610000001</v>
+        <v>5.38818966</v>
       </c>
       <c r="N43">
-        <v>225.34988239</v>
+        <v>227.51181034</v>
       </c>
       <c r="O43">
-        <v>49.5769741258</v>
+        <v>50.0525982748</v>
       </c>
       <c r="P43">
-        <v>175.7729082642</v>
+        <v>177.4592120652</v>
       </c>
       <c r="Q43">
-        <v>209.4729082642</v>
+        <v>211.1592120652</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1381357782216264</v>
+        <v>0.1377719090206327</v>
       </c>
       <c r="T43">
         <v>1.278360583126309</v>
       </c>
       <c r="U43">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>30.84720159743313</v>
+        <v>43.22416520134148</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.08860409426382654</v>
+        <v>0.08631625709606998</v>
       </c>
       <c r="C44">
-        <v>471.0101337932354</v>
+        <v>470.9936622064256</v>
       </c>
       <c r="D44">
-        <v>59.12673379323535</v>
+        <v>59.11026220642552</v>
       </c>
       <c r="E44">
         <v>338.8866</v>
@@ -4838,37 +4838,37 @@
         <v>232.9</v>
       </c>
       <c r="M44">
-        <v>7.73426682</v>
+        <v>5.51960892</v>
       </c>
       <c r="N44">
-        <v>225.16573318</v>
+        <v>227.38039108</v>
       </c>
       <c r="O44">
-        <v>49.53646129960001</v>
+        <v>50.0236860376</v>
       </c>
       <c r="P44">
-        <v>175.6292718804</v>
+        <v>177.3567050424</v>
       </c>
       <c r="Q44">
-        <v>209.3292718804</v>
+        <v>211.0567050424</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1399440935583216</v>
+        <v>0.1396709260277068</v>
       </c>
       <c r="T44">
         <v>1.297256764455258</v>
       </c>
       <c r="U44">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>30.11274441654187</v>
+        <v>42.19501841083336</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4887,13 +4887,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.08844861937689351</v>
+        <v>0.08616632786996668</v>
       </c>
       <c r="C45">
-        <v>462.9096415146244</v>
+        <v>462.8927685765333</v>
       </c>
       <c r="D45">
-        <v>59.13854151462425</v>
+        <v>59.12166857653321</v>
       </c>
       <c r="E45">
         <v>346.9989</v>
@@ -4920,37 +4920,37 @@
         <v>232.9</v>
       </c>
       <c r="M45">
-        <v>7.91841603</v>
+        <v>5.651028179999999</v>
       </c>
       <c r="N45">
-        <v>224.98158397</v>
+        <v>227.24897182</v>
       </c>
       <c r="O45">
-        <v>49.4959484734</v>
+        <v>49.9947738004</v>
       </c>
       <c r="P45">
-        <v>175.4856354966</v>
+        <v>177.2541980196</v>
       </c>
       <c r="Q45">
-        <v>209.1856354966</v>
+        <v>210.9541980196</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1418158585559535</v>
+        <v>0.1416365752104679</v>
       </c>
       <c r="T45">
         <v>1.316815969690486</v>
       </c>
       <c r="U45">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>29.41244803476182</v>
+        <v>41.213738912907</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.08829314448996049</v>
+        <v>0.08601639864386339</v>
       </c>
       <c r="C46">
-        <v>454.809153953004</v>
+        <v>454.7918793496121</v>
       </c>
       <c r="D46">
-        <v>59.15035395300404</v>
+        <v>59.13307934961207</v>
       </c>
       <c r="E46">
         <v>355.1112000000001</v>
@@ -5002,37 +5002,37 @@
         <v>232.9</v>
       </c>
       <c r="M46">
-        <v>8.102565240000001</v>
+        <v>5.78244744</v>
       </c>
       <c r="N46">
-        <v>224.79743476</v>
+        <v>227.11755256</v>
       </c>
       <c r="O46">
-        <v>49.45543564720001</v>
+        <v>49.9658615632</v>
       </c>
       <c r="P46">
-        <v>175.3419991128</v>
+        <v>177.1516909968</v>
       </c>
       <c r="Q46">
-        <v>209.0419991128</v>
+        <v>210.8516909968</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1437544723035009</v>
+        <v>0.143672426149756</v>
       </c>
       <c r="T46">
         <v>1.33707371796983</v>
       </c>
       <c r="U46">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>28.74398330669905</v>
+        <v>40.27706302852275</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5051,13 +5051,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.08813766960302746</v>
+        <v>0.08586646941776008</v>
       </c>
       <c r="C47">
-        <v>446.7086711112018</v>
+        <v>446.690994528212</v>
       </c>
       <c r="D47">
-        <v>59.16217111120186</v>
+        <v>59.14449452821197</v>
       </c>
       <c r="E47">
         <v>363.2235000000001</v>
@@ -5084,37 +5084,37 @@
         <v>232.9</v>
       </c>
       <c r="M47">
-        <v>8.286714450000002</v>
+        <v>5.913866700000001</v>
       </c>
       <c r="N47">
-        <v>224.61328555</v>
+        <v>226.9861333</v>
       </c>
       <c r="O47">
-        <v>49.414922821</v>
+        <v>49.936949326</v>
       </c>
       <c r="P47">
-        <v>175.198362729</v>
+        <v>177.049183974</v>
       </c>
       <c r="Q47">
-        <v>208.898362729</v>
+        <v>210.749183974</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1457635810964135</v>
+        <v>0.145782308032291</v>
       </c>
       <c r="T47">
         <v>1.358068111641149</v>
       </c>
       <c r="U47">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>28.10522812210574</v>
+        <v>39.38201718344446</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5133,13 +5133,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.08798219471609442</v>
+        <v>0.08571654019165677</v>
       </c>
       <c r="C48">
-        <v>438.608192992047</v>
+        <v>438.5901141148847</v>
       </c>
       <c r="D48">
-        <v>59.17399299204705</v>
+        <v>59.15591411488475</v>
       </c>
       <c r="E48">
         <v>371.3358000000001</v>
@@ -5166,37 +5166,37 @@
         <v>232.9</v>
       </c>
       <c r="M48">
-        <v>8.470863660000001</v>
+        <v>6.04528596</v>
       </c>
       <c r="N48">
-        <v>224.42913634</v>
+        <v>226.85471404</v>
       </c>
       <c r="O48">
-        <v>49.3744099948</v>
+        <v>49.9080370888</v>
       </c>
       <c r="P48">
-        <v>175.0547263452</v>
+        <v>176.9466769512</v>
       </c>
       <c r="Q48">
-        <v>208.7547263452</v>
+        <v>210.6466769512</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1478471013261008</v>
+        <v>0.1479703336882533</v>
       </c>
       <c r="T48">
         <v>1.379840075448443</v>
       </c>
       <c r="U48">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>27.49424490205996</v>
+        <v>38.52588637510871</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5215,13 +5215,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.08782671982916139</v>
+        <v>0.08556661096555347</v>
       </c>
       <c r="C49">
-        <v>430.5077195983712</v>
+        <v>430.4892381121842</v>
       </c>
       <c r="D49">
-        <v>59.18581959837126</v>
+        <v>59.16733811218425</v>
       </c>
       <c r="E49">
         <v>379.4481000000001</v>
@@ -5248,37 +5248,37 @@
         <v>232.9</v>
       </c>
       <c r="M49">
-        <v>8.655012870000002</v>
+        <v>6.176705220000001</v>
       </c>
       <c r="N49">
-        <v>224.24498713</v>
+        <v>226.72329478</v>
       </c>
       <c r="O49">
-        <v>49.3338971686</v>
+        <v>49.8791248516</v>
       </c>
       <c r="P49">
-        <v>174.9110899614</v>
+        <v>176.8441699284</v>
       </c>
       <c r="Q49">
-        <v>208.6110899614</v>
+        <v>210.5441699284</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1500092449606819</v>
+        <v>0.1502409263501009</v>
       </c>
       <c r="T49">
         <v>1.402433622795636</v>
       </c>
       <c r="U49">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>26.90926096797357</v>
+        <v>37.70618666500002</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5297,13 +5297,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.08767124494222835</v>
+        <v>0.08541668173945019</v>
       </c>
       <c r="C50">
-        <v>422.4072509330084</v>
+        <v>422.3883665226663</v>
       </c>
       <c r="D50">
-        <v>59.19765093300835</v>
+        <v>59.17876652266623</v>
       </c>
       <c r="E50">
         <v>387.5604</v>
@@ -5330,37 +5330,37 @@
         <v>232.9</v>
       </c>
       <c r="M50">
-        <v>8.839162080000001</v>
+        <v>6.30812448</v>
       </c>
       <c r="N50">
-        <v>224.06083792</v>
+        <v>226.59187552</v>
       </c>
       <c r="O50">
-        <v>49.2933843424</v>
+        <v>49.8502126144</v>
       </c>
       <c r="P50">
-        <v>174.7674535776</v>
+        <v>176.7416629056</v>
       </c>
       <c r="Q50">
-        <v>208.4674535776</v>
+        <v>210.4416629056</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1522545479658237</v>
+        <v>0.1525988494989426</v>
       </c>
       <c r="T50">
         <v>1.425896152733104</v>
       </c>
       <c r="U50">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>26.34865136447413</v>
+        <v>36.92064110947918</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.08751577005529533</v>
+        <v>0.08526675251334688</v>
       </c>
       <c r="C51">
-        <v>414.3067869987946</v>
+        <v>414.2874993488886</v>
       </c>
       <c r="D51">
-        <v>59.2094869987945</v>
+        <v>59.19019934888848</v>
       </c>
       <c r="E51">
         <v>395.6727</v>
@@ -5412,37 +5412,37 @@
         <v>232.9</v>
       </c>
       <c r="M51">
-        <v>9.023311290000001</v>
+        <v>6.43954374</v>
       </c>
       <c r="N51">
-        <v>223.87668871</v>
+        <v>226.46045626</v>
       </c>
       <c r="O51">
-        <v>49.2528715162</v>
+        <v>49.8213003772</v>
       </c>
       <c r="P51">
-        <v>174.6238171938</v>
+        <v>176.6391558828</v>
       </c>
       <c r="Q51">
-        <v>208.3238171938</v>
+        <v>210.3391558828</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1545879020692065</v>
+        <v>0.1550492402222488</v>
       </c>
       <c r="T51">
         <v>1.450278781883807</v>
       </c>
       <c r="U51">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>25.81092378560731</v>
+        <v>36.16715863785716</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5461,13 +5461,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.08736029516836229</v>
+        <v>0.08511682328724358</v>
       </c>
       <c r="C52">
-        <v>406.2063277985682</v>
+        <v>406.1866365934108</v>
       </c>
       <c r="D52">
-        <v>59.22132779856813</v>
+        <v>59.20163659341075</v>
       </c>
       <c r="E52">
         <v>403.785</v>
@@ -5494,37 +5494,37 @@
         <v>232.9</v>
       </c>
       <c r="M52">
-        <v>9.207460500000002</v>
+        <v>6.570963</v>
       </c>
       <c r="N52">
-        <v>223.6925395</v>
+        <v>226.329037</v>
       </c>
       <c r="O52">
-        <v>49.21235869</v>
+        <v>49.79238814</v>
       </c>
       <c r="P52">
-        <v>174.48018081</v>
+        <v>176.53664886</v>
       </c>
       <c r="Q52">
-        <v>208.18018081</v>
+        <v>210.23664886</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1570145903367246</v>
+        <v>0.1575976465744872</v>
       </c>
       <c r="T52">
         <v>1.475636716200538</v>
       </c>
       <c r="U52">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>25.29470530989516</v>
+        <v>35.44381546510002</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5543,13 +5543,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.08720482028142926</v>
+        <v>0.08496689406114027</v>
       </c>
       <c r="C53">
-        <v>398.1058733351699</v>
+        <v>398.0857782587948</v>
       </c>
       <c r="D53">
-        <v>59.23317333516994</v>
+        <v>59.21307825879473</v>
       </c>
       <c r="E53">
         <v>411.8973</v>
@@ -5576,37 +5576,37 @@
         <v>232.9</v>
       </c>
       <c r="M53">
-        <v>9.391609710000001</v>
+        <v>6.70238226</v>
       </c>
       <c r="N53">
-        <v>223.50839029</v>
+        <v>226.19761774</v>
       </c>
       <c r="O53">
-        <v>49.1718458638</v>
+        <v>49.7634759028</v>
       </c>
       <c r="P53">
-        <v>174.3365444262</v>
+        <v>176.4341418372</v>
       </c>
       <c r="Q53">
-        <v>208.0365444262</v>
+        <v>210.1341418372</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1595403271049577</v>
+        <v>0.1602500695125312</v>
       </c>
       <c r="T53">
         <v>1.502029668244483</v>
       </c>
       <c r="U53">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>24.79873069597565</v>
+        <v>34.74883869127452</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5625,13 +5625,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.08704934539449623</v>
+        <v>0.08481696483503698</v>
       </c>
       <c r="C54">
-        <v>390.0054236114429</v>
+        <v>389.9849243476042</v>
       </c>
       <c r="D54">
-        <v>59.2450236114429</v>
+        <v>59.22452434760415</v>
       </c>
       <c r="E54">
         <v>420.0096</v>
@@ -5658,37 +5658,37 @@
         <v>232.9</v>
       </c>
       <c r="M54">
-        <v>9.57575892</v>
+        <v>6.83380152</v>
       </c>
       <c r="N54">
-        <v>223.32424108</v>
+        <v>226.06619848</v>
       </c>
       <c r="O54">
-        <v>49.1313330376</v>
+        <v>49.7345636656</v>
       </c>
       <c r="P54">
-        <v>174.1929080424</v>
+        <v>176.3316348144</v>
       </c>
       <c r="Q54">
-        <v>207.8929080424</v>
+        <v>210.0316348144</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1621713029052005</v>
+        <v>0.1630130100729937</v>
       </c>
       <c r="T54">
         <v>1.529522326623592</v>
       </c>
       <c r="U54">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>24.32183202874535</v>
+        <v>34.0805917933654</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5707,13 +5707,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.08689387050756321</v>
+        <v>0.08466703560893367</v>
       </c>
       <c r="C55">
-        <v>381.9049786302322</v>
+        <v>381.8840748624046</v>
       </c>
       <c r="D55">
-        <v>59.25687863023224</v>
+        <v>59.23597486240468</v>
       </c>
       <c r="E55">
         <v>428.1219</v>
@@ -5740,37 +5740,37 @@
         <v>232.9</v>
       </c>
       <c r="M55">
-        <v>9.759908130000001</v>
+        <v>6.96522078</v>
       </c>
       <c r="N55">
-        <v>223.14009187</v>
+        <v>225.93477922</v>
       </c>
       <c r="O55">
-        <v>49.0908202114</v>
+        <v>49.7056514284</v>
       </c>
       <c r="P55">
-        <v>174.0492716586</v>
+        <v>176.2291277916</v>
       </c>
       <c r="Q55">
-        <v>207.7492716586</v>
+        <v>209.9291277916</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1649142351224749</v>
+        <v>0.1658935225721993</v>
       </c>
       <c r="T55">
         <v>1.558184885359258</v>
       </c>
       <c r="U55">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>23.86292953763694</v>
+        <v>33.43756175952831</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5789,13 +5789,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.08673839562063017</v>
+        <v>0.08451710638283039</v>
       </c>
       <c r="C56">
-        <v>373.8045383943855</v>
+        <v>373.783229805764</v>
       </c>
       <c r="D56">
-        <v>59.2687383943855</v>
+        <v>59.24742980576401</v>
       </c>
       <c r="E56">
         <v>436.2342</v>
@@ -5822,37 +5822,37 @@
         <v>232.9</v>
       </c>
       <c r="M56">
-        <v>9.944057340000001</v>
+        <v>7.09664004</v>
       </c>
       <c r="N56">
-        <v>222.95594266</v>
+        <v>225.80335996</v>
       </c>
       <c r="O56">
-        <v>49.0503073852</v>
+        <v>49.6767391912</v>
       </c>
       <c r="P56">
-        <v>173.9056352748</v>
+        <v>176.1266207688</v>
       </c>
       <c r="Q56">
-        <v>207.6056352748</v>
+        <v>209.8266207688</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1677764252622395</v>
+        <v>0.1688992747452835</v>
       </c>
       <c r="T56">
         <v>1.588093642300824</v>
       </c>
       <c r="U56">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>23.42102343508812</v>
+        <v>32.81834765287039</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5871,13 +5871,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.08658292073369714</v>
+        <v>0.08436717715672709</v>
       </c>
       <c r="C57">
-        <v>365.7041029067525</v>
+        <v>365.6823891802518</v>
       </c>
       <c r="D57">
-        <v>59.2806029067525</v>
+        <v>59.25888918025177</v>
       </c>
       <c r="E57">
         <v>444.3465</v>
@@ -5904,37 +5904,37 @@
         <v>232.9</v>
       </c>
       <c r="M57">
-        <v>10.12820655</v>
+        <v>7.2280593</v>
       </c>
       <c r="N57">
-        <v>222.77179345</v>
+        <v>225.6719407</v>
       </c>
       <c r="O57">
-        <v>49.00979455900001</v>
+        <v>49.647826954</v>
       </c>
       <c r="P57">
-        <v>173.761998891</v>
+        <v>176.024113746</v>
       </c>
       <c r="Q57">
-        <v>207.461998891</v>
+        <v>209.724113746</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1707658238526603</v>
+        <v>0.172038615903838</v>
       </c>
       <c r="T57">
         <v>1.619331677328681</v>
       </c>
       <c r="U57">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>22.99518664535924</v>
+        <v>32.2216504228182</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5953,13 +5953,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.08642744584676411</v>
+        <v>0.08421724793062378</v>
       </c>
       <c r="C58">
-        <v>357.6036721701853</v>
+        <v>357.5815529884396</v>
       </c>
       <c r="D58">
-        <v>59.2924721701853</v>
+        <v>59.27035298843963</v>
       </c>
       <c r="E58">
         <v>452.4588000000001</v>
@@ -5986,37 +5986,37 @@
         <v>232.9</v>
       </c>
       <c r="M58">
-        <v>10.31235576</v>
+        <v>7.35947856</v>
       </c>
       <c r="N58">
-        <v>222.58764424</v>
+        <v>225.54052144</v>
       </c>
       <c r="O58">
-        <v>48.9692817328</v>
+        <v>49.6189147168</v>
       </c>
       <c r="P58">
-        <v>173.6183625072</v>
+        <v>175.9216067232</v>
       </c>
       <c r="Q58">
-        <v>207.3183625072</v>
+        <v>209.6216067232</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1738911041971912</v>
+        <v>0.1753206543877814</v>
       </c>
       <c r="T58">
         <v>1.651989623039622</v>
       </c>
       <c r="U58">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>22.5845583124064</v>
+        <v>31.64626380812501</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6035,13 +6035,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.08627197095983108</v>
+        <v>0.08406731870452049</v>
       </c>
       <c r="C59">
-        <v>349.5032461875383</v>
+        <v>349.4807212329011</v>
       </c>
       <c r="D59">
-        <v>59.30434618753827</v>
+        <v>59.2818212329012</v>
       </c>
       <c r="E59">
         <v>460.5711000000001</v>
@@ -6068,37 +6068,37 @@
         <v>232.9</v>
       </c>
       <c r="M59">
-        <v>10.49650497</v>
+        <v>7.490897820000001</v>
       </c>
       <c r="N59">
-        <v>222.40349503</v>
+        <v>225.40910218</v>
       </c>
       <c r="O59">
-        <v>48.92876890660001</v>
+        <v>49.5900024796</v>
       </c>
       <c r="P59">
-        <v>173.4747261234</v>
+        <v>175.8190997004</v>
       </c>
       <c r="Q59">
-        <v>207.1747261234</v>
+        <v>209.5190997004</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1771617464182118</v>
+        <v>0.1787553458244663</v>
       </c>
       <c r="T59">
         <v>1.686166542969677</v>
       </c>
       <c r="U59">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>22.18833799113611</v>
+        <v>31.09106619745615</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.08611649607289804</v>
+        <v>0.08391738947841719</v>
       </c>
       <c r="C60">
-        <v>341.4028249616682</v>
+        <v>341.3798939162122</v>
       </c>
       <c r="D60">
-        <v>59.31622496166808</v>
+        <v>59.29329391621213</v>
       </c>
       <c r="E60">
         <v>468.6834</v>
@@ -6150,37 +6150,37 @@
         <v>232.9</v>
       </c>
       <c r="M60">
-        <v>10.68065418</v>
+        <v>7.622317079999999</v>
       </c>
       <c r="N60">
-        <v>222.21934582</v>
+        <v>225.27768292</v>
       </c>
       <c r="O60">
-        <v>48.8882560804</v>
+        <v>49.56109024240001</v>
       </c>
       <c r="P60">
-        <v>173.3310897396</v>
+        <v>175.7165926776</v>
       </c>
       <c r="Q60">
-        <v>207.0310897396</v>
+        <v>209.4165926776</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1805881335069001</v>
+        <v>0.1823535939962314</v>
       </c>
       <c r="T60">
         <v>1.721970935277353</v>
       </c>
       <c r="U60">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>21.8057804395648</v>
+        <v>30.55501333198278</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6199,13 +6199,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.08596102118596502</v>
+        <v>0.08376746025231388</v>
       </c>
       <c r="C61">
-        <v>333.3024084954337</v>
+        <v>333.2790710409501</v>
       </c>
       <c r="D61">
-        <v>59.32810849543369</v>
+        <v>59.30477104095003</v>
       </c>
       <c r="E61">
         <v>476.7957</v>
@@ -6232,37 +6232,37 @@
         <v>232.9</v>
       </c>
       <c r="M61">
-        <v>10.86480339</v>
+        <v>7.75373634</v>
       </c>
       <c r="N61">
-        <v>222.03519661</v>
+        <v>225.14626366</v>
       </c>
       <c r="O61">
-        <v>48.8477432542</v>
+        <v>49.5321780052</v>
       </c>
       <c r="P61">
-        <v>173.1874533558</v>
+        <v>175.6140856548</v>
       </c>
       <c r="Q61">
-        <v>206.8874533558</v>
+        <v>209.3140856548</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1841816614291829</v>
+        <v>0.1861273664690582</v>
       </c>
       <c r="T61">
         <v>1.759521883307356</v>
       </c>
       <c r="U61">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>21.43619094058912</v>
+        <v>30.03713175008476</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6281,13 +6281,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.08580554629903198</v>
+        <v>0.08361753102621058</v>
       </c>
       <c r="C62">
-        <v>325.2019967916963</v>
+        <v>325.1782526096945</v>
       </c>
       <c r="D62">
-        <v>59.33999679169631</v>
+        <v>59.31625260969451</v>
       </c>
       <c r="E62">
         <v>484.908</v>
@@ -6314,37 +6314,37 @@
         <v>232.9</v>
       </c>
       <c r="M62">
-        <v>11.0489526</v>
+        <v>7.885155599999999</v>
       </c>
       <c r="N62">
-        <v>221.8510474</v>
+        <v>225.0148444</v>
       </c>
       <c r="O62">
-        <v>48.807230428</v>
+        <v>49.50326576800001</v>
       </c>
       <c r="P62">
-        <v>173.043816972</v>
+        <v>175.511578632</v>
       </c>
       <c r="Q62">
-        <v>206.743816972</v>
+        <v>209.211578632</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1879548657475799</v>
+        <v>0.1900898275655264</v>
       </c>
       <c r="T62">
         <v>1.798950378738858</v>
       </c>
       <c r="U62">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>21.0789210915793</v>
+        <v>29.53651288758335</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6363,13 +6363,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.08565007141209895</v>
+        <v>0.08346760180010727</v>
       </c>
       <c r="C63">
-        <v>317.1015898533195</v>
+        <v>317.0774386250272</v>
       </c>
       <c r="D63">
-        <v>59.35188985331948</v>
+        <v>59.32773862502722</v>
       </c>
       <c r="E63">
         <v>493.0203</v>
@@ -6396,37 +6396,37 @@
         <v>232.9</v>
       </c>
       <c r="M63">
-        <v>11.23310181</v>
+        <v>8.01657486</v>
       </c>
       <c r="N63">
-        <v>221.66689819</v>
+        <v>224.88342514</v>
       </c>
       <c r="O63">
-        <v>48.7667176018</v>
+        <v>49.4743535308</v>
       </c>
       <c r="P63">
-        <v>172.9001805882</v>
+        <v>175.4090716092</v>
       </c>
       <c r="Q63">
-        <v>206.6001805882</v>
+        <v>209.1090716092</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1919215677233306</v>
+        <v>0.1942554917951469</v>
       </c>
       <c r="T63">
         <v>1.840400848295053</v>
       </c>
       <c r="U63">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>20.73336500811079</v>
+        <v>29.0523077582787</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6445,13 +6445,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.08549459652516592</v>
+        <v>0.08331767257400399</v>
       </c>
       <c r="C64">
-        <v>309.0011876831691</v>
+        <v>308.9766290895317</v>
       </c>
       <c r="D64">
-        <v>59.36378768316905</v>
+        <v>59.33922908953172</v>
       </c>
       <c r="E64">
         <v>501.1326</v>
@@ -6478,37 +6478,37 @@
         <v>232.9</v>
       </c>
       <c r="M64">
-        <v>11.41725102</v>
+        <v>8.14799412</v>
       </c>
       <c r="N64">
-        <v>221.48274898</v>
+        <v>224.75200588</v>
       </c>
       <c r="O64">
-        <v>48.7262047756</v>
+        <v>49.44544129360001</v>
       </c>
       <c r="P64">
-        <v>172.7565442044</v>
+        <v>175.3065645864</v>
       </c>
       <c r="Q64">
-        <v>206.4565442044</v>
+        <v>209.0065645864</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1960970434872787</v>
+        <v>0.1986404015105368</v>
       </c>
       <c r="T64">
         <v>1.8840329215121</v>
       </c>
       <c r="U64">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>20.39895589507675</v>
+        <v>28.58372214927421</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6527,13 +6527,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.0853391216382329</v>
+        <v>0.0831677433479007</v>
       </c>
       <c r="C65">
-        <v>300.9007902841132</v>
+        <v>300.8758240057937</v>
       </c>
       <c r="D65">
-        <v>59.37569028411312</v>
+        <v>59.35072400579368</v>
       </c>
       <c r="E65">
         <v>509.2449</v>
@@ -6560,37 +6560,37 @@
         <v>232.9</v>
       </c>
       <c r="M65">
-        <v>11.60140023</v>
+        <v>8.279413379999999</v>
       </c>
       <c r="N65">
-        <v>221.29859977</v>
+        <v>224.62058662</v>
       </c>
       <c r="O65">
-        <v>48.6856919494</v>
+        <v>49.4165290564</v>
       </c>
       <c r="P65">
-        <v>172.6129078206</v>
+        <v>175.2040575636</v>
       </c>
       <c r="Q65">
-        <v>206.3129078206</v>
+        <v>208.9040575636</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2004982206438727</v>
+        <v>0.2032623333727046</v>
       </c>
       <c r="T65">
         <v>1.930023485173312</v>
       </c>
       <c r="U65">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>20.07516294436124</v>
+        <v>28.13001227388891</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6609,13 +6609,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.08518364675129986</v>
+        <v>0.08301781412179739</v>
       </c>
       <c r="C66">
-        <v>292.8003976590221</v>
+        <v>292.7750233764007</v>
       </c>
       <c r="D66">
-        <v>59.38759765902213</v>
+        <v>59.36222337640069</v>
       </c>
       <c r="E66">
         <v>517.3572</v>
@@ -6642,37 +6642,37 @@
         <v>232.9</v>
       </c>
       <c r="M66">
-        <v>11.78554944</v>
+        <v>8.410832640000001</v>
       </c>
       <c r="N66">
-        <v>221.11445056</v>
+        <v>224.48916736</v>
       </c>
       <c r="O66">
-        <v>48.6451791232</v>
+        <v>49.38761681920001</v>
       </c>
       <c r="P66">
-        <v>172.4692714368</v>
+        <v>175.1015505408</v>
       </c>
       <c r="Q66">
-        <v>206.1692714368</v>
+        <v>208.8015505408</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2051439076424996</v>
+        <v>0.208141039227215</v>
       </c>
       <c r="T66">
         <v>1.978569080149036</v>
       </c>
       <c r="U66">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>19.7614885233556</v>
+        <v>27.69048083210939</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6691,13 +6691,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.08502817186436684</v>
+        <v>0.08286788489569409</v>
       </c>
       <c r="C67">
-        <v>284.7000098107687</v>
+        <v>284.6742272039423</v>
       </c>
       <c r="D67">
-        <v>59.39950981076882</v>
+        <v>59.3737272039424</v>
       </c>
       <c r="E67">
         <v>525.4695</v>
@@ -6724,37 +6724,37 @@
         <v>232.9</v>
       </c>
       <c r="M67">
-        <v>11.96969865</v>
+        <v>8.5422519</v>
       </c>
       <c r="N67">
-        <v>220.93030135</v>
+        <v>224.3577481</v>
       </c>
       <c r="O67">
-        <v>48.604666297</v>
+        <v>49.358704582</v>
       </c>
       <c r="P67">
-        <v>172.325635053</v>
+        <v>174.999043518</v>
       </c>
       <c r="Q67">
-        <v>206.025635053</v>
+        <v>208.699043518</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2100550624696196</v>
+        <v>0.2132985282734117</v>
       </c>
       <c r="T67">
         <v>2.029888709123373</v>
       </c>
       <c r="U67">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>19.45746562299628</v>
+        <v>27.26447343469232</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6773,13 +6773,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.0848726969774338</v>
+        <v>0.0827179556695908</v>
       </c>
       <c r="C68">
-        <v>276.5996267422281</v>
+        <v>276.5734354910104</v>
       </c>
       <c r="D68">
-        <v>59.4114267422282</v>
+        <v>59.38523549101043</v>
       </c>
       <c r="E68">
         <v>533.5818</v>
@@ -6806,37 +6806,37 @@
         <v>232.9</v>
       </c>
       <c r="M68">
-        <v>12.15384786</v>
+        <v>8.673671160000001</v>
       </c>
       <c r="N68">
-        <v>220.74615214</v>
+        <v>224.22632884</v>
       </c>
       <c r="O68">
-        <v>48.5641534708</v>
+        <v>49.3297923448</v>
       </c>
       <c r="P68">
-        <v>172.1819986692</v>
+        <v>174.8965364952</v>
       </c>
       <c r="Q68">
-        <v>205.8819986692</v>
+        <v>208.5965364952</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2152551087571583</v>
+        <v>0.2187593990282082</v>
       </c>
       <c r="T68">
         <v>2.084227139802082</v>
       </c>
       <c r="U68">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>19.16265553779936</v>
+        <v>26.85137535234849</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6855,13 +6855,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.08471722209050077</v>
+        <v>0.08256802644348749</v>
       </c>
       <c r="C69">
-        <v>268.4992484562775</v>
+        <v>268.4726482401984</v>
       </c>
       <c r="D69">
-        <v>59.42334845627764</v>
+        <v>59.39674824019843</v>
       </c>
       <c r="E69">
         <v>541.6941</v>
@@ -6888,37 +6888,37 @@
         <v>232.9</v>
       </c>
       <c r="M69">
-        <v>12.33799707</v>
+        <v>8.805090420000001</v>
       </c>
       <c r="N69">
-        <v>220.56200293</v>
+        <v>224.09490958</v>
       </c>
       <c r="O69">
-        <v>48.5236406446</v>
+        <v>49.3008801076</v>
       </c>
       <c r="P69">
-        <v>172.0383622854</v>
+        <v>174.7940294724</v>
       </c>
       <c r="Q69">
-        <v>205.7383622854</v>
+        <v>208.4940294724</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2207703093651539</v>
+        <v>0.2245512316469318</v>
       </c>
       <c r="T69">
         <v>2.141858808703744</v>
       </c>
       <c r="U69">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>18.8766457536531</v>
+        <v>26.45060855604479</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6937,13 +6937,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.08456174720356775</v>
+        <v>0.0824180972173842</v>
       </c>
       <c r="C70">
-        <v>260.3988749557967</v>
+        <v>260.371865454102</v>
       </c>
       <c r="D70">
-        <v>59.43527495579679</v>
+        <v>59.40826545410206</v>
       </c>
       <c r="E70">
         <v>549.8064000000001</v>
@@ -6970,37 +6970,37 @@
         <v>232.9</v>
       </c>
       <c r="M70">
-        <v>12.52214628</v>
+        <v>8.93650968</v>
       </c>
       <c r="N70">
-        <v>220.37785372</v>
+        <v>223.96349032</v>
       </c>
       <c r="O70">
-        <v>48.4831278184</v>
+        <v>49.2719678704</v>
       </c>
       <c r="P70">
-        <v>171.8947259016</v>
+        <v>174.6915224496</v>
       </c>
       <c r="Q70">
-        <v>205.5947259016</v>
+        <v>208.3915224496</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2266302100111492</v>
+        <v>0.2307050538043257</v>
       </c>
       <c r="T70">
         <v>2.203092456911759</v>
       </c>
       <c r="U70">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>18.59904802198173</v>
+        <v>26.06162901845589</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7019,13 +7019,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.08440627231663471</v>
+        <v>0.08226816799128091</v>
       </c>
       <c r="C71">
-        <v>252.2985062436676</v>
+        <v>252.2710871353189</v>
       </c>
       <c r="D71">
-        <v>59.44720624366761</v>
+        <v>59.419787135319</v>
       </c>
       <c r="E71">
         <v>557.9187000000001</v>
@@ -7052,37 +7052,37 @@
         <v>232.9</v>
       </c>
       <c r="M71">
-        <v>12.70629549</v>
+        <v>9.067928940000002</v>
       </c>
       <c r="N71">
-        <v>220.19370451</v>
+        <v>223.83207106</v>
       </c>
       <c r="O71">
-        <v>48.4426149922</v>
+        <v>49.2430556332</v>
       </c>
       <c r="P71">
-        <v>171.7510895178</v>
+        <v>174.5890154268</v>
       </c>
       <c r="Q71">
-        <v>205.4510895178</v>
+        <v>208.2890154268</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2328681687633378</v>
+        <v>0.2372558967460675</v>
       </c>
       <c r="T71">
         <v>2.268276663068678</v>
       </c>
       <c r="U71">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>18.32949660137331</v>
+        <v>25.68392425007247</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7101,13 +7101,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.08425079742970168</v>
+        <v>0.08211823876517758</v>
       </c>
       <c r="C72">
-        <v>244.1981423227743</v>
+        <v>244.1703132864488</v>
       </c>
       <c r="D72">
-        <v>59.45914232277437</v>
+        <v>59.4313132864489</v>
       </c>
       <c r="E72">
         <v>566.0310000000001</v>
@@ -7134,37 +7134,37 @@
         <v>232.9</v>
       </c>
       <c r="M72">
-        <v>12.8904447</v>
+        <v>9.199348200000001</v>
       </c>
       <c r="N72">
-        <v>220.0095553</v>
+        <v>223.7006518</v>
       </c>
       <c r="O72">
-        <v>48.402102166</v>
+        <v>49.214143396</v>
       </c>
       <c r="P72">
-        <v>171.607453134</v>
+        <v>174.486508404</v>
       </c>
       <c r="Q72">
-        <v>205.307453134</v>
+        <v>208.186508404</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.239521991432339</v>
+        <v>0.244243462550592</v>
       </c>
       <c r="T72">
         <v>2.337806482969392</v>
       </c>
       <c r="U72">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>18.06764664992511</v>
+        <v>25.31701104650001</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.08409532254276865</v>
+        <v>0.0819683095390743</v>
       </c>
       <c r="C73">
-        <v>236.0977831960037</v>
+        <v>236.0695439100936</v>
       </c>
       <c r="D73">
-        <v>59.47108319600368</v>
+        <v>59.44284391009349</v>
       </c>
       <c r="E73">
         <v>574.1433</v>
@@ -7216,37 +7216,37 @@
         <v>232.9</v>
       </c>
       <c r="M73">
-        <v>13.07459391</v>
+        <v>9.330767459999999</v>
       </c>
       <c r="N73">
-        <v>219.82540609</v>
+        <v>223.56923254</v>
       </c>
       <c r="O73">
-        <v>48.3615893398</v>
+        <v>49.1852311588</v>
       </c>
       <c r="P73">
-        <v>171.4638167502</v>
+        <v>174.3840013812</v>
       </c>
       <c r="Q73">
-        <v>205.1638167502</v>
+        <v>208.0840013812</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2466346984233402</v>
+        <v>0.2517129294450838</v>
       </c>
       <c r="T73">
         <v>2.412131462863258</v>
       </c>
       <c r="U73">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>17.8131727534473</v>
+        <v>24.96043342612678</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7265,13 +7265,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.08393984765583563</v>
+        <v>0.08181838031297101</v>
       </c>
       <c r="C74">
-        <v>227.9974288662445</v>
+        <v>227.9687790088565</v>
       </c>
       <c r="D74">
-        <v>59.48302886624446</v>
+        <v>59.4543790088565</v>
       </c>
       <c r="E74">
         <v>582.2556</v>
@@ -7298,37 +7298,37 @@
         <v>232.9</v>
       </c>
       <c r="M74">
-        <v>13.25874312</v>
+        <v>9.46218672</v>
       </c>
       <c r="N74">
-        <v>219.64125688</v>
+        <v>223.43781328</v>
       </c>
       <c r="O74">
-        <v>48.3210765136</v>
+        <v>49.1563189216</v>
       </c>
       <c r="P74">
-        <v>171.3201803664</v>
+        <v>174.2814943584</v>
       </c>
       <c r="Q74">
-        <v>205.0201803664</v>
+        <v>207.9814943584</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2542554559136986</v>
+        <v>0.2597159296891822</v>
       </c>
       <c r="T74">
         <v>2.491765369892402</v>
       </c>
       <c r="U74">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>17.56576757631609</v>
+        <v>24.61376073965279</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7347,13 +7347,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.08378437276890259</v>
+        <v>0.0816684510868677</v>
       </c>
       <c r="C75">
-        <v>219.8970793363879</v>
+        <v>219.8680185853436</v>
       </c>
       <c r="D75">
-        <v>59.49497933638795</v>
+        <v>59.46591858534365</v>
       </c>
       <c r="E75">
         <v>590.3679</v>
@@ -7380,37 +7380,37 @@
         <v>232.9</v>
       </c>
       <c r="M75">
-        <v>13.44289233</v>
+        <v>9.59360598</v>
       </c>
       <c r="N75">
-        <v>219.45710767</v>
+        <v>223.30639402</v>
       </c>
       <c r="O75">
-        <v>48.2805636874</v>
+        <v>49.1274066844</v>
       </c>
       <c r="P75">
-        <v>171.1765439826</v>
+        <v>174.1789873356</v>
       </c>
       <c r="Q75">
-        <v>204.8765439826</v>
+        <v>207.8789873356</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.2624407139588985</v>
+        <v>0.2683117447661766</v>
       </c>
       <c r="T75">
         <v>2.577298084849629</v>
       </c>
       <c r="U75">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>17.32514062321587</v>
+        <v>24.27658593500001</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7429,13 +7429,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.08362889788196956</v>
+        <v>0.08151852186076441</v>
       </c>
       <c r="C76">
-        <v>211.7967346093277</v>
+        <v>211.7672626421628</v>
       </c>
       <c r="D76">
-        <v>59.5069346093277</v>
+        <v>59.47746264216273</v>
       </c>
       <c r="E76">
         <v>598.4802</v>
@@ -7462,37 +7462,37 @@
         <v>232.9</v>
       </c>
       <c r="M76">
-        <v>13.62704154</v>
+        <v>9.725025239999999</v>
       </c>
       <c r="N76">
-        <v>219.27295846</v>
+        <v>223.17497476</v>
       </c>
       <c r="O76">
-        <v>48.2400508612</v>
+        <v>49.0984944472</v>
       </c>
       <c r="P76">
-        <v>171.0329075988</v>
+        <v>174.0764803128</v>
       </c>
       <c r="Q76">
-        <v>204.7329075988</v>
+        <v>207.7764803128</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.2712556072383444</v>
+        <v>0.2775687763875554</v>
       </c>
       <c r="T76">
         <v>2.669410239418951</v>
       </c>
       <c r="U76">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>17.09101710128052</v>
+        <v>23.94852396290542</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7511,13 +7511,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.08347342299503652</v>
+        <v>0.08136859263466109</v>
       </c>
       <c r="C77">
-        <v>203.6963946879596</v>
+        <v>203.6665111819235</v>
       </c>
       <c r="D77">
-        <v>59.51889468795961</v>
+        <v>59.48901118192353</v>
       </c>
       <c r="E77">
         <v>606.5925</v>
@@ -7544,37 +7544,37 @@
         <v>232.9</v>
       </c>
       <c r="M77">
-        <v>13.81119075</v>
+        <v>9.8564445</v>
       </c>
       <c r="N77">
-        <v>219.08880925</v>
+        <v>223.0435555</v>
       </c>
       <c r="O77">
-        <v>48.199538035</v>
+        <v>49.06958221</v>
       </c>
       <c r="P77">
-        <v>170.889271215</v>
+        <v>173.97397329</v>
       </c>
       <c r="Q77">
-        <v>204.589271215</v>
+        <v>207.67397329</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2807756919801461</v>
+        <v>0.2875663705386444</v>
       </c>
       <c r="T77">
         <v>2.768891366353818</v>
       </c>
       <c r="U77">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>16.86313687326344</v>
+        <v>23.62921031006668</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7593,13 +7593,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.0833179481081035</v>
+        <v>0.08121866340855781</v>
       </c>
       <c r="C78">
-        <v>195.5960595751819</v>
+        <v>195.5657642072379</v>
       </c>
       <c r="D78">
-        <v>59.53085957518189</v>
+        <v>59.50056420723785</v>
       </c>
       <c r="E78">
         <v>614.7048</v>
@@ -7626,37 +7626,37 @@
         <v>232.9</v>
       </c>
       <c r="M78">
-        <v>13.99533996</v>
+        <v>9.98786376</v>
       </c>
       <c r="N78">
-        <v>218.90466004</v>
+        <v>222.91213624</v>
       </c>
       <c r="O78">
-        <v>48.1590252088</v>
+        <v>49.0406699728</v>
       </c>
       <c r="P78">
-        <v>170.7456348312</v>
+        <v>173.8714662672</v>
       </c>
       <c r="Q78">
-        <v>204.4456348312</v>
+        <v>207.5714662672</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.2910891171170979</v>
+        <v>0.2983970975356575</v>
       </c>
       <c r="T78">
         <v>2.876662587199926</v>
       </c>
       <c r="U78">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>16.64125349335208</v>
+        <v>23.31829964809211</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7675,13 +7675,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.08316247322117044</v>
+        <v>0.0810687341824545</v>
       </c>
       <c r="C79">
-        <v>187.4957292738951</v>
+        <v>187.4650217207196</v>
       </c>
       <c r="D79">
-        <v>59.54282927389508</v>
+        <v>59.51212172071957</v>
       </c>
       <c r="E79">
         <v>622.8171</v>
@@ -7708,37 +7708,37 @@
         <v>232.9</v>
       </c>
       <c r="M79">
-        <v>14.17948917</v>
+        <v>10.11928302</v>
       </c>
       <c r="N79">
-        <v>218.72051083</v>
+        <v>222.78071698</v>
       </c>
       <c r="O79">
-        <v>48.1185123826</v>
+        <v>49.0117577356</v>
       </c>
       <c r="P79">
-        <v>170.6019984474</v>
+        <v>173.7689592444</v>
       </c>
       <c r="Q79">
-        <v>204.3019984474</v>
+        <v>207.4689592444</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.3022993618311759</v>
+        <v>0.310169626880237</v>
       </c>
       <c r="T79">
         <v>2.993805218554389</v>
       </c>
       <c r="U79">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V79">
         <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>16.42513331811374</v>
+        <v>23.01546458772728</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7757,13 +7757,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.08300699833423744</v>
+        <v>0.08091880495635122</v>
       </c>
       <c r="C80">
-        <v>179.3954037870021</v>
+        <v>179.3642837249845</v>
       </c>
       <c r="D80">
-        <v>59.55480378700209</v>
+        <v>59.52368372498454</v>
       </c>
       <c r="E80">
         <v>630.9294</v>
@@ -7790,37 +7790,37 @@
         <v>232.9</v>
       </c>
       <c r="M80">
-        <v>14.36363838</v>
+        <v>10.25070228</v>
       </c>
       <c r="N80">
-        <v>218.53636162</v>
+        <v>222.64929772</v>
       </c>
       <c r="O80">
-        <v>48.0779995564</v>
+        <v>48.9828454984</v>
       </c>
       <c r="P80">
-        <v>170.4583620636</v>
+        <v>173.6664522216</v>
       </c>
       <c r="Q80">
-        <v>204.1583620636</v>
+        <v>207.3664522216</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.3145287197010793</v>
+        <v>0.3230123861652328</v>
       </c>
       <c r="T80">
         <v>3.121597180031987</v>
       </c>
       <c r="U80">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V80">
         <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>16.21455468583023</v>
+        <v>22.72039452891027</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7839,13 +7839,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.0828515234473044</v>
+        <v>0.08076887573024789</v>
       </c>
       <c r="C81">
-        <v>171.2950831174081</v>
+        <v>171.2635502226507</v>
       </c>
       <c r="D81">
-        <v>59.56678311740811</v>
+        <v>59.53525022265071</v>
       </c>
       <c r="E81">
         <v>639.0417</v>
@@ -7872,37 +7872,37 @@
         <v>232.9</v>
       </c>
       <c r="M81">
-        <v>14.54778759</v>
+        <v>10.38212154</v>
       </c>
       <c r="N81">
-        <v>218.35221241</v>
+        <v>222.51787846</v>
       </c>
       <c r="O81">
-        <v>48.0374867302</v>
+        <v>48.95393326120001</v>
       </c>
       <c r="P81">
-        <v>170.3147256798</v>
+        <v>173.5639451988</v>
       </c>
       <c r="Q81">
-        <v>204.0147256798</v>
+        <v>207.2639451988</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.3279227783204972</v>
+        <v>0.3370782653821329</v>
       </c>
       <c r="T81">
         <v>3.26155980450745</v>
       </c>
       <c r="U81">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V81">
         <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>16.00930715816149</v>
+        <v>22.43279459816457</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7921,13 +7921,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.08269604856037138</v>
+        <v>0.08061894650414461</v>
       </c>
       <c r="C82">
-        <v>163.1947672680207</v>
+        <v>163.162821216338</v>
       </c>
       <c r="D82">
-        <v>59.57876726802071</v>
+        <v>59.54682121633799</v>
       </c>
       <c r="E82">
         <v>647.154</v>
@@ -7954,37 +7954,37 @@
         <v>232.9</v>
       </c>
       <c r="M82">
-        <v>14.7319368</v>
+        <v>10.5135408</v>
       </c>
       <c r="N82">
-        <v>218.1680632</v>
+        <v>222.3864592</v>
       </c>
       <c r="O82">
-        <v>47.996973904</v>
+        <v>48.925021024</v>
       </c>
       <c r="P82">
-        <v>170.171089296</v>
+        <v>173.461438176</v>
       </c>
       <c r="Q82">
-        <v>203.871089296</v>
+        <v>207.161438176</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.342656242801857</v>
+        <v>0.3525507325207232</v>
       </c>
       <c r="T82">
         <v>3.41551869143046</v>
       </c>
       <c r="U82">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V82">
         <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>15.80919081868448</v>
+        <v>22.15238466568751</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8003,13 +8003,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.08254057367343832</v>
+        <v>0.08046901727804132</v>
       </c>
       <c r="C83">
-        <v>155.0944562417498</v>
+        <v>155.0620967086684</v>
       </c>
       <c r="D83">
-        <v>59.59075624174978</v>
+        <v>59.5583967086684</v>
       </c>
       <c r="E83">
         <v>655.2663</v>
@@ -8036,37 +8036,37 @@
         <v>232.9</v>
       </c>
       <c r="M83">
-        <v>14.91608601</v>
+        <v>10.64496006</v>
       </c>
       <c r="N83">
-        <v>217.98391399</v>
+        <v>222.25503994</v>
       </c>
       <c r="O83">
-        <v>47.9564610778</v>
+        <v>48.89610878680001</v>
       </c>
       <c r="P83">
-        <v>170.0274529122</v>
+        <v>173.3589311532</v>
       </c>
       <c r="Q83">
-        <v>203.7274529122</v>
+        <v>207.0589311532</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.3589405982812545</v>
+        <v>0.3696518804107438</v>
       </c>
       <c r="T83">
         <v>3.585683776976944</v>
       </c>
       <c r="U83">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V83">
         <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>15.61401562339207</v>
+        <v>21.87889843524692</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8085,13 +8085,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.0823850987865053</v>
+        <v>0.08031908805193801</v>
       </c>
       <c r="C84">
-        <v>146.9941500415075</v>
+        <v>146.961376702266</v>
       </c>
       <c r="D84">
-        <v>59.60275004150756</v>
+        <v>59.56997670226595</v>
       </c>
       <c r="E84">
         <v>663.3786</v>
@@ -8118,37 +8118,37 @@
         <v>232.9</v>
       </c>
       <c r="M84">
-        <v>15.10023522</v>
+        <v>10.77637932</v>
       </c>
       <c r="N84">
-        <v>217.79976478</v>
+        <v>222.12362068</v>
       </c>
       <c r="O84">
-        <v>47.9159482516</v>
+        <v>48.8671965496</v>
       </c>
       <c r="P84">
-        <v>169.8838165284</v>
+        <v>173.2564241304</v>
       </c>
       <c r="Q84">
-        <v>203.5838165284</v>
+        <v>206.9564241304</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.3770343265916962</v>
+        <v>0.3886531558441002</v>
       </c>
       <c r="T84">
         <v>3.774756094250816</v>
       </c>
       <c r="U84">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V84">
         <v>0.22</v>
       </c>
       <c r="W84">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>15.42360079871656</v>
+        <v>21.61208260067074</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8167,13 +8167,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.08222962389957228</v>
+        <v>0.08016915882583472</v>
       </c>
       <c r="C85">
-        <v>138.8938486702086</v>
+        <v>138.8606611997567</v>
       </c>
       <c r="D85">
-        <v>59.61474867020862</v>
+        <v>59.58156119975671</v>
       </c>
       <c r="E85">
         <v>671.4909</v>
@@ -8200,37 +8200,37 @@
         <v>232.9</v>
       </c>
       <c r="M85">
-        <v>15.28438443</v>
+        <v>10.90779858</v>
       </c>
       <c r="N85">
-        <v>217.61561557</v>
+        <v>221.99220142</v>
       </c>
       <c r="O85">
-        <v>47.8754354254</v>
+        <v>48.83828431240001</v>
       </c>
       <c r="P85">
-        <v>169.7401801446</v>
+        <v>173.1539171076</v>
       </c>
       <c r="Q85">
-        <v>203.4401801446</v>
+        <v>206.8539171076</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.3972567288210136</v>
+        <v>0.4098898754460867</v>
       </c>
       <c r="T85">
         <v>3.986072213556908</v>
       </c>
       <c r="U85">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V85">
         <v>0.22</v>
       </c>
       <c r="W85">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>15.23777428306937</v>
+        <v>21.35169606331327</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8249,13 +8249,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.08207414901263926</v>
+        <v>0.08001922959973141</v>
       </c>
       <c r="C86">
-        <v>130.79355213077</v>
+        <v>130.7599502037689</v>
       </c>
       <c r="D86">
-        <v>59.62675213076992</v>
+        <v>59.59315020376879</v>
       </c>
       <c r="E86">
         <v>679.6031999999999</v>
@@ -8282,37 +8282,37 @@
         <v>232.9</v>
       </c>
       <c r="M86">
-        <v>15.46853364</v>
+        <v>11.03921784</v>
       </c>
       <c r="N86">
-        <v>217.43146636</v>
+        <v>221.86078216</v>
       </c>
       <c r="O86">
-        <v>47.8349225992</v>
+        <v>48.8093720752</v>
       </c>
       <c r="P86">
-        <v>169.5965437608</v>
+        <v>173.0514100848</v>
       </c>
       <c r="Q86">
-        <v>203.2965437608</v>
+        <v>206.7514100848</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.4200069313289952</v>
+        <v>0.4337811849983213</v>
       </c>
       <c r="T86">
         <v>4.223802847776259</v>
       </c>
       <c r="U86">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V86">
         <v>0.22</v>
       </c>
       <c r="W86">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>15.05637220827093</v>
+        <v>21.09750920541668</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8331,13 +8331,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.08191867412570622</v>
+        <v>0.07986930037362813</v>
       </c>
       <c r="C87">
-        <v>122.6932604261108</v>
+        <v>122.6592437169325</v>
       </c>
       <c r="D87">
-        <v>59.63876042611071</v>
+        <v>59.60474371693233</v>
       </c>
       <c r="E87">
         <v>687.7154999999999</v>
@@ -8364,37 +8364,37 @@
         <v>232.9</v>
       </c>
       <c r="M87">
-        <v>15.65268285</v>
+        <v>11.1706371</v>
       </c>
       <c r="N87">
-        <v>217.24731715</v>
+        <v>221.7293629</v>
       </c>
       <c r="O87">
-        <v>47.79440977300001</v>
+        <v>48.78045983800001</v>
       </c>
       <c r="P87">
-        <v>169.452907377</v>
+        <v>172.948903062</v>
       </c>
       <c r="Q87">
-        <v>203.152907377</v>
+        <v>206.648903062</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.4457904941713748</v>
+        <v>0.4608580024908541</v>
       </c>
       <c r="T87">
         <v>4.493230899891526</v>
       </c>
       <c r="U87">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V87">
         <v>0.22</v>
       </c>
       <c r="W87">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>14.87923841758539</v>
+        <v>20.84930321476472</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8413,13 +8413,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.08176319923877319</v>
+        <v>0.07971937114752481</v>
       </c>
       <c r="C88">
-        <v>114.5929735591527</v>
+        <v>114.5585417418796</v>
       </c>
       <c r="D88">
-        <v>59.65077355915265</v>
+        <v>59.61634174187956</v>
       </c>
       <c r="E88">
         <v>695.8277999999999</v>
@@ -8446,37 +8446,37 @@
         <v>232.9</v>
       </c>
       <c r="M88">
-        <v>15.83683206</v>
+        <v>11.30205636</v>
       </c>
       <c r="N88">
-        <v>217.06316794</v>
+        <v>221.59794364</v>
       </c>
       <c r="O88">
-        <v>47.7538969468</v>
+        <v>48.7515476008</v>
       </c>
       <c r="P88">
-        <v>169.3092709932</v>
+        <v>172.8463960392</v>
       </c>
       <c r="Q88">
-        <v>203.0092709932</v>
+        <v>206.5463960392</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.4752574231340942</v>
+        <v>0.4918029367680344</v>
       </c>
       <c r="T88">
         <v>4.801148673737545</v>
       </c>
       <c r="U88">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V88">
         <v>0.22</v>
       </c>
       <c r="W88">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>14.70622401738091</v>
+        <v>20.6068694564535</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.08160772435184016</v>
+        <v>0.07956944192142151</v>
       </c>
       <c r="C89">
-        <v>106.4926915328198</v>
+        <v>106.4578442812448</v>
       </c>
       <c r="D89">
-        <v>59.66279153281971</v>
+        <v>59.62794428124472</v>
       </c>
       <c r="E89">
         <v>703.9400999999999</v>
@@ -8528,37 +8528,37 @@
         <v>232.9</v>
       </c>
       <c r="M89">
-        <v>16.02098127</v>
+        <v>11.43347562</v>
       </c>
       <c r="N89">
-        <v>216.87901873</v>
+        <v>221.46652438</v>
       </c>
       <c r="O89">
-        <v>47.7133841206</v>
+        <v>48.72263536360001</v>
       </c>
       <c r="P89">
-        <v>169.1656346094</v>
+        <v>172.7438890164</v>
       </c>
       <c r="Q89">
-        <v>202.8656346094</v>
+        <v>206.4438890164</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.5092577257833858</v>
+        <v>0.5275086301647809</v>
       </c>
       <c r="T89">
         <v>5.156438412790644</v>
       </c>
       <c r="U89">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V89">
         <v>0.22</v>
       </c>
       <c r="W89">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>14.53718695970987</v>
+        <v>20.37000888798852</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8577,13 +8577,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.08145224946490714</v>
+        <v>0.07941951269531822</v>
       </c>
       <c r="C90">
-        <v>98.39241435003817</v>
+        <v>98.35715133766405</v>
       </c>
       <c r="D90">
-        <v>59.67481435003823</v>
+        <v>59.6395513376641</v>
       </c>
       <c r="E90">
         <v>712.0524</v>
@@ -8610,37 +8610,37 @@
         <v>232.9</v>
       </c>
       <c r="M90">
-        <v>16.20513048</v>
+        <v>11.56489488</v>
       </c>
       <c r="N90">
-        <v>216.69486952</v>
+        <v>221.33510512</v>
       </c>
       <c r="O90">
-        <v>47.6728712944</v>
+        <v>48.6937231264</v>
       </c>
       <c r="P90">
-        <v>169.0219982256</v>
+        <v>172.6413819936</v>
       </c>
       <c r="Q90">
-        <v>202.7219982256</v>
+        <v>206.3413819936</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.5489247455408929</v>
+        <v>0.5691652724609852</v>
       </c>
       <c r="T90">
         <v>5.570943108352594</v>
       </c>
       <c r="U90">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V90">
         <v>0.22</v>
       </c>
       <c r="W90">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>14.37199165334953</v>
+        <v>20.13853151426137</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8659,13 +8659,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.0812967745779741</v>
+        <v>0.07926958346921492</v>
       </c>
       <c r="C91">
-        <v>90.29214201373691</v>
+        <v>90.25646291377598</v>
       </c>
       <c r="D91">
-        <v>59.68684201373693</v>
+        <v>59.65116291377608</v>
       </c>
       <c r="E91">
         <v>720.1647</v>
@@ -8692,37 +8692,37 @@
         <v>232.9</v>
       </c>
       <c r="M91">
-        <v>16.38927969</v>
+        <v>11.69631414</v>
       </c>
       <c r="N91">
-        <v>216.51072031</v>
+        <v>221.20368586</v>
       </c>
       <c r="O91">
-        <v>47.6323584682</v>
+        <v>48.66481088920001</v>
       </c>
       <c r="P91">
-        <v>168.8783618418</v>
+        <v>172.5388749708</v>
       </c>
       <c r="Q91">
-        <v>202.5783618418</v>
+        <v>206.2388749708</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.5958039507088555</v>
+        <v>0.6183958497201357</v>
       </c>
       <c r="T91">
         <v>6.060812294016715</v>
       </c>
       <c r="U91">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V91">
         <v>0.22</v>
       </c>
       <c r="W91">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>14.2105086010647</v>
+        <v>19.91225587926967</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8741,13 +8741,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.08114129969104107</v>
+        <v>0.07911965424311163</v>
       </c>
       <c r="C92">
-        <v>82.19187452684685</v>
+        <v>82.15577901222105</v>
       </c>
       <c r="D92">
-        <v>59.69887452684686</v>
+        <v>59.66277901222106</v>
       </c>
       <c r="E92">
         <v>728.277</v>
@@ -8774,37 +8774,37 @@
         <v>232.9</v>
       </c>
       <c r="M92">
-        <v>16.5734289</v>
+        <v>11.8277334</v>
       </c>
       <c r="N92">
-        <v>216.3265711</v>
+        <v>221.0722666</v>
       </c>
       <c r="O92">
-        <v>47.591845642</v>
+        <v>48.635898652</v>
       </c>
       <c r="P92">
-        <v>168.734725458</v>
+        <v>172.436367948</v>
       </c>
       <c r="Q92">
-        <v>202.434725458</v>
+        <v>206.136367948</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.6520589969104108</v>
+        <v>0.6774725424311163</v>
       </c>
       <c r="T92">
         <v>6.648655316813661</v>
       </c>
       <c r="U92">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V92">
         <v>0.22</v>
       </c>
       <c r="W92">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>14.05261406105287</v>
+        <v>19.69100859172223</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8823,13 +8823,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.08098582480410804</v>
+        <v>0.07896972501700833</v>
       </c>
       <c r="C93">
-        <v>74.09161189230133</v>
+        <v>74.05509963564145</v>
       </c>
       <c r="D93">
-        <v>59.71091189230145</v>
+        <v>59.67439963564149</v>
       </c>
       <c r="E93">
         <v>736.3893</v>
@@ -8856,37 +8856,37 @@
         <v>232.9</v>
       </c>
       <c r="M93">
-        <v>16.75757811</v>
+        <v>11.95915266</v>
       </c>
       <c r="N93">
-        <v>216.14242189</v>
+        <v>220.94084734</v>
       </c>
       <c r="O93">
-        <v>47.5513328158</v>
+        <v>48.6069864148</v>
       </c>
       <c r="P93">
-        <v>168.5910890742</v>
+        <v>172.3338609252</v>
       </c>
       <c r="Q93">
-        <v>202.2910890742</v>
+        <v>206.0338609252</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.7208151644900896</v>
+        <v>0.7496773890778706</v>
       </c>
       <c r="T93">
         <v>7.367130122454375</v>
       </c>
       <c r="U93">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V93">
         <v>0.22</v>
       </c>
       <c r="W93">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>13.89818973071163</v>
+        <v>19.47462388192309</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8905,13 +8905,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.08083034991717503</v>
+        <v>0.07881979579090503</v>
       </c>
       <c r="C94">
-        <v>65.99135411303644</v>
+        <v>65.9544247866819</v>
       </c>
       <c r="D94">
-        <v>59.72295411303651</v>
+        <v>59.68602478668193</v>
       </c>
       <c r="E94">
         <v>744.5016000000001</v>
@@ -8938,37 +8938,37 @@
         <v>232.9</v>
       </c>
       <c r="M94">
-        <v>16.94172732</v>
+        <v>12.09057192</v>
       </c>
       <c r="N94">
-        <v>215.95827268</v>
+        <v>220.80942808</v>
       </c>
       <c r="O94">
-        <v>47.5108199896</v>
+        <v>48.5780741776</v>
       </c>
       <c r="P94">
-        <v>168.4474526904</v>
+        <v>172.2313539024</v>
       </c>
       <c r="Q94">
-        <v>202.1474526904</v>
+        <v>205.9313539024</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.8067603739646881</v>
+        <v>0.8399334473863134</v>
       </c>
       <c r="T94">
         <v>8.265223629505266</v>
       </c>
       <c r="U94">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V94">
         <v>0.22</v>
       </c>
       <c r="W94">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>13.74712245102998</v>
+        <v>19.26294318755436</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8987,13 +8987,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.08067487503024198</v>
+        <v>0.07866986656480171</v>
       </c>
       <c r="C95">
-        <v>57.89110119199006</v>
+        <v>57.85375446798889</v>
       </c>
       <c r="D95">
-        <v>59.73500119199019</v>
+        <v>59.69765446798895</v>
       </c>
       <c r="E95">
         <v>752.6139000000001</v>
@@ -9020,37 +9020,37 @@
         <v>232.9</v>
       </c>
       <c r="M95">
-        <v>17.12587653</v>
+        <v>12.22199118</v>
       </c>
       <c r="N95">
-        <v>215.77412347</v>
+        <v>220.67800882</v>
       </c>
       <c r="O95">
-        <v>47.4703071634</v>
+        <v>48.5491619404</v>
       </c>
       <c r="P95">
-        <v>168.3038163066</v>
+        <v>172.1288468796</v>
       </c>
       <c r="Q95">
-        <v>202.0038163066</v>
+        <v>205.8288468796</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.9172613575748859</v>
+        <v>0.9559769509257395</v>
       </c>
       <c r="T95">
         <v>9.419915281427839</v>
       </c>
       <c r="U95">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V95">
         <v>0.22</v>
       </c>
       <c r="W95">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>13.59930393005116</v>
+        <v>19.0558147661828</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9069,13 +9069,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.08051940014330895</v>
+        <v>0.07851993733869844</v>
       </c>
       <c r="C96">
-        <v>49.79085313210294</v>
+        <v>49.75308868221111</v>
       </c>
       <c r="D96">
-        <v>59.74705313210302</v>
+        <v>59.7092886822112</v>
       </c>
       <c r="E96">
         <v>760.7262000000001</v>
@@ -9102,37 +9102,37 @@
         <v>232.9</v>
       </c>
       <c r="M96">
-        <v>17.31002574</v>
+        <v>12.35341044</v>
       </c>
       <c r="N96">
-        <v>215.58997426</v>
+        <v>220.54658956</v>
       </c>
       <c r="O96">
-        <v>47.4297943372</v>
+        <v>48.5202497032</v>
       </c>
       <c r="P96">
-        <v>168.1601799228</v>
+        <v>172.0263398568</v>
       </c>
       <c r="Q96">
-        <v>201.8601799228</v>
+        <v>205.7263398568</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.064596002388484</v>
+        <v>1.110701622311642</v>
       </c>
       <c r="T96">
         <v>10.95950415065794</v>
       </c>
       <c r="U96">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V96">
         <v>0.22</v>
       </c>
       <c r="W96">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>13.45463048398679</v>
+        <v>18.85309333250001</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9151,13 +9151,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.08154952525637593</v>
+        <v>0.07837000811259516</v>
       </c>
       <c r="C97">
-        <v>41.59879148063396</v>
+        <v>41.65242743199929</v>
       </c>
       <c r="D97">
-        <v>59.66729148063404</v>
+        <v>59.72092743199939</v>
       </c>
       <c r="E97">
         <v>768.8385000000001</v>
@@ -9184,45 +9184,45 @@
         <v>232.9</v>
       </c>
       <c r="M97">
-        <v>18.72724455000001</v>
+        <v>12.4848297</v>
       </c>
       <c r="N97">
-        <v>214.17275545</v>
+        <v>220.4151703</v>
       </c>
       <c r="O97">
-        <v>47.118006199</v>
+        <v>48.491337466</v>
       </c>
       <c r="P97">
-        <v>167.054749251</v>
+        <v>171.923832834</v>
       </c>
       <c r="Q97">
-        <v>200.754749251</v>
+        <v>205.623832834</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.27086450512752</v>
+        <v>1.327316162251905</v>
       </c>
       <c r="T97">
         <v>13.11492856758008</v>
       </c>
       <c r="U97">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V97">
         <v>0.22</v>
       </c>
       <c r="W97">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y97">
-        <v>12.43642647898246</v>
+        <v>18.65463971847369</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9233,13 +9233,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.0814065303694429</v>
+        <v>0.07822007888649184</v>
       </c>
       <c r="C98">
-        <v>33.49755071327661</v>
+        <v>33.55177072000629</v>
       </c>
       <c r="D98">
-        <v>59.6783507132766</v>
+        <v>59.73257072000632</v>
       </c>
       <c r="E98">
         <v>776.9508</v>
@@ -9266,45 +9266,45 @@
         <v>232.9</v>
       </c>
       <c r="M98">
-        <v>18.92437344</v>
+        <v>12.61624896</v>
       </c>
       <c r="N98">
-        <v>213.97562656</v>
+        <v>220.28375104</v>
       </c>
       <c r="O98">
-        <v>47.0746378432</v>
+        <v>48.4624252288</v>
       </c>
       <c r="P98">
-        <v>166.9009887168</v>
+        <v>171.8213258112</v>
       </c>
       <c r="Q98">
-        <v>200.6009887168</v>
+        <v>205.5213258112</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.580267259236071</v>
+        <v>1.652237972162294</v>
       </c>
       <c r="T98">
         <v>16.34806519296325</v>
       </c>
       <c r="U98">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V98">
         <v>0.22</v>
       </c>
       <c r="W98">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y98">
-        <v>12.30688036982639</v>
+        <v>18.46032055473959</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9315,13 +9315,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.08126353548250988</v>
+        <v>0.07807014966038855</v>
       </c>
       <c r="C99">
-        <v>25.39631404629972</v>
+        <v>25.45111854888683</v>
       </c>
       <c r="D99">
-        <v>59.68941404629969</v>
+        <v>59.74421854888685</v>
       </c>
       <c r="E99">
         <v>785.0631</v>
@@ -9348,45 +9348,45 @@
         <v>232.9</v>
       </c>
       <c r="M99">
-        <v>19.12150233</v>
+        <v>12.74766822</v>
       </c>
       <c r="N99">
-        <v>213.77849767</v>
+        <v>220.15233178</v>
       </c>
       <c r="O99">
-        <v>47.0312694874</v>
+        <v>48.4335129916</v>
       </c>
       <c r="P99">
-        <v>166.7472281826</v>
+        <v>171.7188187884</v>
       </c>
       <c r="Q99">
-        <v>200.4472281826</v>
+        <v>205.4188187884</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.095938516083661</v>
+        <v>2.19377432201295</v>
       </c>
       <c r="T99">
         <v>21.73662623526858</v>
       </c>
       <c r="U99">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V99">
         <v>0.22</v>
       </c>
       <c r="W99">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y99">
-        <v>12.18000531446736</v>
+        <v>18.27000797170104</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9397,13 +9397,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.08112054059557683</v>
+        <v>0.07792022043428525</v>
       </c>
       <c r="C100">
-        <v>17.2950814819842</v>
+        <v>17.35047092129787</v>
       </c>
       <c r="D100">
-        <v>59.70048148198415</v>
+        <v>59.75587092129788</v>
       </c>
       <c r="E100">
         <v>793.1754</v>
@@ -9430,45 +9430,45 @@
         <v>232.9</v>
       </c>
       <c r="M100">
-        <v>19.31863122</v>
+        <v>12.87908748</v>
       </c>
       <c r="N100">
-        <v>213.58136878</v>
+        <v>220.02091252</v>
       </c>
       <c r="O100">
-        <v>46.9879011316</v>
+        <v>48.4046007544</v>
       </c>
       <c r="P100">
-        <v>166.5934676484</v>
+        <v>171.6163117656</v>
       </c>
       <c r="Q100">
-        <v>200.2934676484</v>
+        <v>205.3163117656</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>3.127281029778839</v>
+        <v>3.276847021714259</v>
       </c>
       <c r="T100">
         <v>32.51374831987925</v>
       </c>
       <c r="U100">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V100">
         <v>0.22</v>
       </c>
       <c r="W100">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y100">
-        <v>12.05571954595239</v>
+        <v>18.08357931892858</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.08097754570864381</v>
+        <v>0.07777029120818195</v>
       </c>
       <c r="C101">
-        <v>9.193853022612529</v>
+        <v>9.249827839898444</v>
       </c>
       <c r="D101">
-        <v>59.71155302261251</v>
+        <v>59.76752783989841</v>
       </c>
       <c r="E101">
         <v>801.2877</v>
@@ -9512,45 +9512,45 @@
         <v>232.9</v>
       </c>
       <c r="M101">
-        <v>19.51576011</v>
+        <v>13.01050674</v>
       </c>
       <c r="N101">
-        <v>213.38423989</v>
+        <v>219.88949326</v>
       </c>
       <c r="O101">
-        <v>46.9445327758</v>
+        <v>48.3756885172</v>
       </c>
       <c r="P101">
-        <v>166.4397071142</v>
+        <v>171.5138047428</v>
       </c>
       <c r="Q101">
-        <v>200.1397071142</v>
+        <v>205.2138047428</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>6.221308570864375</v>
+        <v>6.526065120818189</v>
       </c>
       <c r="T101">
         <v>64.84511457371124</v>
       </c>
       <c r="U101">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V101">
         <v>0.22</v>
       </c>
       <c r="W101">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y101">
-        <v>11.93394460104378</v>
+        <v>17.90091690156567</v>
       </c>
       <c r="Z101">
         <v>0</v>
